--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2984.526866397225</v>
+        <v>3157.108881452323</v>
       </c>
       <c r="AB2" t="n">
-        <v>4083.561326637599</v>
+        <v>4319.695653417148</v>
       </c>
       <c r="AC2" t="n">
-        <v>3693.83196493747</v>
+        <v>3907.42996298578</v>
       </c>
       <c r="AD2" t="n">
-        <v>2984526.866397225</v>
+        <v>3157108.881452323</v>
       </c>
       <c r="AE2" t="n">
-        <v>4083561.326637599</v>
+        <v>4319695.653417148</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.814737012608933e-07</v>
+        <v>1.126622825755613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.89322916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3693831.96493747</v>
+        <v>3907429.96298578</v>
       </c>
     </row>
     <row r="3">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1438.091297185848</v>
+        <v>1550.239737672562</v>
       </c>
       <c r="AB3" t="n">
-        <v>1967.659956920048</v>
+        <v>2121.106400833977</v>
       </c>
       <c r="AC3" t="n">
-        <v>1779.869252259692</v>
+        <v>1918.670982929913</v>
       </c>
       <c r="AD3" t="n">
-        <v>1438091.297185848</v>
+        <v>1550239.737672562</v>
       </c>
       <c r="AE3" t="n">
-        <v>1967659.956920048</v>
+        <v>2121106.400833977</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.231217885128722e-06</v>
+        <v>1.775003011139698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.68424479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1779869.252259692</v>
+        <v>1918670.982929913</v>
       </c>
     </row>
     <row r="4">
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1173.890652369429</v>
+        <v>1268.857698119748</v>
       </c>
       <c r="AB4" t="n">
-        <v>1606.168978972393</v>
+        <v>1736.107080618347</v>
       </c>
       <c r="AC4" t="n">
-        <v>1452.878465891588</v>
+        <v>1570.415457485723</v>
       </c>
       <c r="AD4" t="n">
-        <v>1173890.652369429</v>
+        <v>1268857.698119747</v>
       </c>
       <c r="AE4" t="n">
-        <v>1606168.978972394</v>
+        <v>1736107.080618347</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.40319811902628e-06</v>
+        <v>2.022940794298818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.66015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1452878.465891588</v>
+        <v>1570415.457485723</v>
       </c>
     </row>
     <row r="5">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1064.360047976644</v>
+        <v>1150.608474585459</v>
       </c>
       <c r="AB5" t="n">
-        <v>1456.304373892956</v>
+        <v>1574.313276191174</v>
       </c>
       <c r="AC5" t="n">
-        <v>1317.316728384638</v>
+        <v>1424.063026674048</v>
       </c>
       <c r="AD5" t="n">
-        <v>1064360.047976644</v>
+        <v>1150608.474585459</v>
       </c>
       <c r="AE5" t="n">
-        <v>1456304.373892956</v>
+        <v>1574313.276191174</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.495443760226491e-06</v>
+        <v>2.155928052583949e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.32552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1317316.728384638</v>
+        <v>1424063.026674048</v>
       </c>
     </row>
     <row r="6">
@@ -5601,28 +5601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>998.580173779048</v>
+        <v>1084.913851733883</v>
       </c>
       <c r="AB6" t="n">
-        <v>1366.301448012568</v>
+        <v>1484.426994963435</v>
       </c>
       <c r="AC6" t="n">
-        <v>1235.903555430374</v>
+        <v>1342.755365970497</v>
       </c>
       <c r="AD6" t="n">
-        <v>998580.173779048</v>
+        <v>1084913.851733883</v>
       </c>
       <c r="AE6" t="n">
-        <v>1366301.448012568</v>
+        <v>1484426.994963435</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.552116942623786e-06</v>
+        <v>2.237631762886656e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.580078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1235903.555430374</v>
+        <v>1342755.365970497</v>
       </c>
     </row>
     <row r="7">
@@ -5707,28 +5707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>960.1974115290232</v>
+        <v>1037.897811196926</v>
       </c>
       <c r="AB7" t="n">
-        <v>1313.784459374123</v>
+        <v>1420.097574099452</v>
       </c>
       <c r="AC7" t="n">
-        <v>1188.398714479526</v>
+        <v>1284.565454746862</v>
       </c>
       <c r="AD7" t="n">
-        <v>960197.4115290232</v>
+        <v>1037897.811196926</v>
       </c>
       <c r="AE7" t="n">
-        <v>1313784.459374123</v>
+        <v>1420097.574099452</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.591424042770839e-06</v>
+        <v>2.294299410394794e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.09830729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1188398.714479526</v>
+        <v>1284565.454746862</v>
       </c>
     </row>
     <row r="8">
@@ -5813,28 +5813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>924.6015405330935</v>
+        <v>1010.849877633357</v>
       </c>
       <c r="AB8" t="n">
-        <v>1265.080618298496</v>
+        <v>1383.089398127165</v>
       </c>
       <c r="AC8" t="n">
-        <v>1144.343099639886</v>
+        <v>1251.08928714807</v>
       </c>
       <c r="AD8" t="n">
-        <v>924601.5405330935</v>
+        <v>1010849.877633357</v>
       </c>
       <c r="AE8" t="n">
-        <v>1265080.618298496</v>
+        <v>1383089.398127165</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.61793999631422e-06</v>
+        <v>2.332526517027362e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.78580729166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1144343.099639886</v>
+        <v>1251089.28714807</v>
       </c>
     </row>
     <row r="9">
@@ -5919,28 +5919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>902.6379656415401</v>
+        <v>988.8863027418032</v>
       </c>
       <c r="AB9" t="n">
-        <v>1235.029086167334</v>
+        <v>1353.037865996003</v>
       </c>
       <c r="AC9" t="n">
-        <v>1117.159643557732</v>
+        <v>1223.905831065915</v>
       </c>
       <c r="AD9" t="n">
-        <v>902637.96564154</v>
+        <v>988886.3027418032</v>
       </c>
       <c r="AE9" t="n">
-        <v>1235029.086167334</v>
+        <v>1353037.865996003</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.640441210412651e-06</v>
+        <v>2.364965716669787e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.52864583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1117159.643557732</v>
+        <v>1223905.831065916</v>
       </c>
     </row>
     <row r="10">
@@ -6025,28 +6025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>883.4872364477457</v>
+        <v>961.1022952610764</v>
       </c>
       <c r="AB10" t="n">
-        <v>1208.826213613841</v>
+        <v>1315.022561216971</v>
       </c>
       <c r="AC10" t="n">
-        <v>1093.457536384781</v>
+        <v>1189.518653620179</v>
       </c>
       <c r="AD10" t="n">
-        <v>883487.2364477457</v>
+        <v>961102.2952610764</v>
       </c>
       <c r="AE10" t="n">
-        <v>1208826.213613841</v>
+        <v>1315022.561216971</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.658367488864514e-06</v>
+        <v>2.390809394393214e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.32682291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1093457.536384781</v>
+        <v>1189518.653620179</v>
       </c>
     </row>
     <row r="11">
@@ -6131,28 +6131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>867.6990088949096</v>
+        <v>945.3140677082406</v>
       </c>
       <c r="AB11" t="n">
-        <v>1187.224064148609</v>
+        <v>1293.42041175174</v>
       </c>
       <c r="AC11" t="n">
-        <v>1073.917065745704</v>
+        <v>1169.978182981102</v>
       </c>
       <c r="AD11" t="n">
-        <v>867699.0088949096</v>
+        <v>945314.0677082406</v>
       </c>
       <c r="AE11" t="n">
-        <v>1187224.064148609</v>
+        <v>1293420.41175174</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.671438733568998e-06</v>
+        <v>2.409653742733213e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.18359375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1073917.065745704</v>
+        <v>1169978.182981102</v>
       </c>
     </row>
     <row r="12">
@@ -6237,28 +6237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>851.4045191047089</v>
+        <v>929.0195779180399</v>
       </c>
       <c r="AB12" t="n">
-        <v>1164.929224355502</v>
+        <v>1271.125571958632</v>
       </c>
       <c r="AC12" t="n">
-        <v>1053.750014171447</v>
+        <v>1149.811131406845</v>
       </c>
       <c r="AD12" t="n">
-        <v>851404.5191047089</v>
+        <v>929019.5779180399</v>
       </c>
       <c r="AE12" t="n">
-        <v>1164929.224355502</v>
+        <v>1271125.571958632</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.683296219836636e-06</v>
+        <v>2.426748258727353e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.056640625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1053750.014171447</v>
+        <v>1149811.131406845</v>
       </c>
     </row>
     <row r="13">
@@ -6343,28 +6343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>830.567474621949</v>
+        <v>916.7304708676409</v>
       </c>
       <c r="AB13" t="n">
-        <v>1136.419060828666</v>
+        <v>1254.311073535137</v>
       </c>
       <c r="AC13" t="n">
-        <v>1027.960820637346</v>
+        <v>1134.601385113591</v>
       </c>
       <c r="AD13" t="n">
-        <v>830567.474621949</v>
+        <v>916730.4708676408</v>
       </c>
       <c r="AE13" t="n">
-        <v>1136419.060828666</v>
+        <v>1254311.073535137</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.691885894928154e-06</v>
+        <v>2.439131687636496e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.96223958333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1027960.820637346</v>
+        <v>1134601.385113591</v>
       </c>
     </row>
     <row r="14">
@@ -6449,28 +6449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>816.6457219574093</v>
+        <v>902.808718203101</v>
       </c>
       <c r="AB14" t="n">
-        <v>1117.370704648661</v>
+        <v>1235.262717355133</v>
       </c>
       <c r="AC14" t="n">
-        <v>1010.730412836626</v>
+        <v>1117.370977312871</v>
       </c>
       <c r="AD14" t="n">
-        <v>816645.7219574093</v>
+        <v>902808.718203101</v>
       </c>
       <c r="AE14" t="n">
-        <v>1117370.704648661</v>
+        <v>1235262.717355133</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.700008739851654e-06</v>
+        <v>2.450842104104923e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.87760416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1010730.412836626</v>
+        <v>1117370.977312871</v>
       </c>
     </row>
     <row r="15">
@@ -6555,28 +6555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>807.6892095911614</v>
+        <v>885.3895197505129</v>
       </c>
       <c r="AB15" t="n">
-        <v>1105.116009295723</v>
+        <v>1211.429001551503</v>
       </c>
       <c r="AC15" t="n">
-        <v>999.6452884085986</v>
+        <v>1095.811917894709</v>
       </c>
       <c r="AD15" t="n">
-        <v>807689.2095911615</v>
+        <v>885389.5197505129</v>
       </c>
       <c r="AE15" t="n">
-        <v>1105116.009295723</v>
+        <v>1211429.001551503</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.706264264103085e-06</v>
+        <v>2.459860470810494e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH15" t="n">
-        <v>999645.2884085986</v>
+        <v>1095811.917894709</v>
       </c>
     </row>
     <row r="16">
@@ -6661,28 +6661,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>793.4454288536997</v>
+        <v>871.1457390130512</v>
       </c>
       <c r="AB16" t="n">
-        <v>1085.627040099471</v>
+        <v>1191.940032355251</v>
       </c>
       <c r="AC16" t="n">
-        <v>982.0163190794974</v>
+        <v>1078.182948565607</v>
       </c>
       <c r="AD16" t="n">
-        <v>793445.4288536997</v>
+        <v>871145.7390130511</v>
       </c>
       <c r="AE16" t="n">
-        <v>1085627.040099471</v>
+        <v>1191940.032355251</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.713733546791361e-06</v>
+        <v>2.470628669861921e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH16" t="n">
-        <v>982016.3190794974</v>
+        <v>1078182.948565607</v>
       </c>
     </row>
     <row r="17">
@@ -6767,28 +6767,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>783.0240348470148</v>
+        <v>860.7243450063662</v>
       </c>
       <c r="AB17" t="n">
-        <v>1071.368029060069</v>
+        <v>1177.68102131585</v>
       </c>
       <c r="AC17" t="n">
-        <v>969.1181680410485</v>
+        <v>1065.284797527159</v>
       </c>
       <c r="AD17" t="n">
-        <v>783024.0348470148</v>
+        <v>860724.3450063663</v>
       </c>
       <c r="AE17" t="n">
-        <v>1071368.029060069</v>
+        <v>1177681.02131585</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.718401848471534e-06</v>
+        <v>2.477358794269063e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.685546875</v>
       </c>
       <c r="AH17" t="n">
-        <v>969118.1680410486</v>
+        <v>1065284.797527159</v>
       </c>
     </row>
     <row r="18">
@@ -6873,28 +6873,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>772.0695274335413</v>
+        <v>849.7698375928928</v>
       </c>
       <c r="AB18" t="n">
-        <v>1056.379588738196</v>
+        <v>1162.692580993976</v>
       </c>
       <c r="AC18" t="n">
-        <v>955.5602034270865</v>
+        <v>1051.726832913197</v>
       </c>
       <c r="AD18" t="n">
-        <v>772069.5274335414</v>
+        <v>849769.8375928928</v>
       </c>
       <c r="AE18" t="n">
-        <v>1056379.588738196</v>
+        <v>1162692.580993976</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.722790052050896e-06</v>
+        <v>2.483685111211777e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.63997395833333</v>
       </c>
       <c r="AH18" t="n">
-        <v>955560.2034270866</v>
+        <v>1051726.832913197</v>
       </c>
     </row>
     <row r="19">
@@ -6979,28 +6979,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>772.8540456428811</v>
+        <v>850.5543558022326</v>
       </c>
       <c r="AB19" t="n">
-        <v>1057.453001162716</v>
+        <v>1163.765993418496</v>
       </c>
       <c r="AC19" t="n">
-        <v>956.5311708763537</v>
+        <v>1052.697800362464</v>
       </c>
       <c r="AD19" t="n">
-        <v>772854.0456428812</v>
+        <v>850554.3558022326</v>
       </c>
       <c r="AE19" t="n">
-        <v>1057453.001162716</v>
+        <v>1163765.993418496</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.72344361428612e-06</v>
+        <v>2.484627328628777e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.63671875</v>
       </c>
       <c r="AH19" t="n">
-        <v>956531.1708763537</v>
+        <v>1052697.800362464</v>
       </c>
     </row>
     <row r="20">
@@ -7085,28 +7085,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>774.7083493031307</v>
+        <v>852.4086594624822</v>
       </c>
       <c r="AB20" t="n">
-        <v>1059.990141236773</v>
+        <v>1166.303133492553</v>
       </c>
       <c r="AC20" t="n">
-        <v>958.8261698626414</v>
+        <v>1054.992799348752</v>
       </c>
       <c r="AD20" t="n">
-        <v>774708.3493031308</v>
+        <v>852408.6594624822</v>
       </c>
       <c r="AE20" t="n">
-        <v>1059990.141236773</v>
+        <v>1166303.133492553</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.72316351618531e-06</v>
+        <v>2.484223521164348e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.63671875</v>
       </c>
       <c r="AH20" t="n">
-        <v>958826.1698626415</v>
+        <v>1054992.799348752</v>
       </c>
     </row>
     <row r="21">
@@ -7191,28 +7191,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>777.5393275747563</v>
+        <v>855.2396377341076</v>
       </c>
       <c r="AB21" t="n">
-        <v>1063.863610601958</v>
+        <v>1170.176602857738</v>
       </c>
       <c r="AC21" t="n">
-        <v>962.3299607480614</v>
+        <v>1058.496590234171</v>
       </c>
       <c r="AD21" t="n">
-        <v>777539.3275747562</v>
+        <v>855239.6377341077</v>
       </c>
       <c r="AE21" t="n">
-        <v>1063863.610601958</v>
+        <v>1170176.602857738</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.723070150151707e-06</v>
+        <v>2.484088918676205e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.63997395833333</v>
       </c>
       <c r="AH21" t="n">
-        <v>962329.9607480613</v>
+        <v>1058496.590234171</v>
       </c>
     </row>
   </sheetData>
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2083.009475002672</v>
+        <v>2226.020334583156</v>
       </c>
       <c r="AB2" t="n">
-        <v>2850.065459591007</v>
+        <v>3045.739226863042</v>
       </c>
       <c r="AC2" t="n">
-        <v>2578.059212219636</v>
+        <v>2755.058149772971</v>
       </c>
       <c r="AD2" t="n">
-        <v>2083009.475002673</v>
+        <v>2226020.334583155</v>
       </c>
       <c r="AE2" t="n">
-        <v>2850065.459591007</v>
+        <v>3045739.226863042</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.593873026308784e-07</v>
+        <v>1.40450691990589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2578059.212219636</v>
+        <v>2755058.149772971</v>
       </c>
     </row>
     <row r="3">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1162.997391464377</v>
+        <v>1263.921133269841</v>
       </c>
       <c r="AB3" t="n">
-        <v>1591.264338825348</v>
+        <v>1729.352654804835</v>
       </c>
       <c r="AC3" t="n">
-        <v>1439.396303681382</v>
+        <v>1564.305664591956</v>
       </c>
       <c r="AD3" t="n">
-        <v>1162997.391464377</v>
+        <v>1263921.133269841</v>
       </c>
       <c r="AE3" t="n">
-        <v>1591264.338825348</v>
+        <v>1729352.654804835</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.376058683235893e-06</v>
+        <v>2.014498146370605e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.84830729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1439396.303681382</v>
+        <v>1564305.664591956</v>
       </c>
     </row>
     <row r="4">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>982.0887049128761</v>
+        <v>1074.595023163338</v>
       </c>
       <c r="AB4" t="n">
-        <v>1343.737092757613</v>
+        <v>1470.308318478628</v>
       </c>
       <c r="AC4" t="n">
-        <v>1215.492710571681</v>
+        <v>1329.984156153712</v>
       </c>
       <c r="AD4" t="n">
-        <v>982088.7049128761</v>
+        <v>1074595.023163338</v>
       </c>
       <c r="AE4" t="n">
-        <v>1343737.092757613</v>
+        <v>1470308.318478628</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.530596052027739e-06</v>
+        <v>2.240735040747875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.54036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1215492.710571681</v>
+        <v>1329984.156153712</v>
       </c>
     </row>
     <row r="5">
@@ -7806,28 +7806,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>900.6915857251929</v>
+        <v>984.8658212752233</v>
       </c>
       <c r="AB5" t="n">
-        <v>1232.365963297566</v>
+        <v>1347.536865882304</v>
       </c>
       <c r="AC5" t="n">
-        <v>1114.750685396938</v>
+        <v>1218.929838682366</v>
       </c>
       <c r="AD5" t="n">
-        <v>900691.5857251929</v>
+        <v>984865.8212752233</v>
       </c>
       <c r="AE5" t="n">
-        <v>1232365.963297566</v>
+        <v>1347536.865882304</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.611052069654994e-06</v>
+        <v>2.358519623883041e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.51497395833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1114750.685396938</v>
+        <v>1218929.838682366</v>
       </c>
     </row>
     <row r="6">
@@ -7912,28 +7912,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>850.3047681580163</v>
+        <v>934.393662853475</v>
       </c>
       <c r="AB6" t="n">
-        <v>1163.424496592649</v>
+        <v>1278.478632055189</v>
       </c>
       <c r="AC6" t="n">
-        <v>1052.388895514383</v>
+        <v>1156.462425767871</v>
       </c>
       <c r="AD6" t="n">
-        <v>850304.7681580163</v>
+        <v>934393.662853475</v>
       </c>
       <c r="AE6" t="n">
-        <v>1163424.496592649</v>
+        <v>1278478.632055189</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.658475724702992e-06</v>
+        <v>2.427946070845066e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1052388.895514383</v>
+        <v>1156462.425767871</v>
       </c>
     </row>
     <row r="7">
@@ -8018,28 +8018,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>818.7139999648695</v>
+        <v>902.8028946603282</v>
       </c>
       <c r="AB7" t="n">
-        <v>1120.200613864454</v>
+        <v>1235.254749326995</v>
       </c>
       <c r="AC7" t="n">
-        <v>1013.290239488666</v>
+        <v>1117.363769742155</v>
       </c>
       <c r="AD7" t="n">
-        <v>818713.9999648695</v>
+        <v>902802.8946603282</v>
       </c>
       <c r="AE7" t="n">
-        <v>1120200.613864454</v>
+        <v>1235254.749326995</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.692763703403682e-06</v>
+        <v>2.478142381785022e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.57421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1013290.239488666</v>
+        <v>1117363.769742155</v>
       </c>
     </row>
     <row r="8">
@@ -8124,28 +8124,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>794.1323946049891</v>
+        <v>869.8039552539959</v>
       </c>
       <c r="AB8" t="n">
-        <v>1086.566976947175</v>
+        <v>1190.10414462079</v>
       </c>
       <c r="AC8" t="n">
-        <v>982.8665496736663</v>
+        <v>1076.522275379839</v>
       </c>
       <c r="AD8" t="n">
-        <v>794132.3946049891</v>
+        <v>869803.955253996</v>
       </c>
       <c r="AE8" t="n">
-        <v>1086566.976947175</v>
+        <v>1190104.14462079</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.719324813664781e-06</v>
+        <v>2.517026848006116e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.28776041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>982866.5496736664</v>
+        <v>1076522.275379839</v>
       </c>
     </row>
     <row r="9">
@@ -8230,28 +8230,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>772.0817902244063</v>
+        <v>847.753350873413</v>
       </c>
       <c r="AB9" t="n">
-        <v>1056.396367229654</v>
+        <v>1159.933534903268</v>
       </c>
       <c r="AC9" t="n">
-        <v>955.5753806028682</v>
+        <v>1049.231106309041</v>
       </c>
       <c r="AD9" t="n">
-        <v>772081.7902244063</v>
+        <v>847753.3508734129</v>
       </c>
       <c r="AE9" t="n">
-        <v>1056396.367229654</v>
+        <v>1159933.534903268</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.737676126208813e-06</v>
+        <v>2.543892479213417e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.09244791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>955575.3806028683</v>
+        <v>1049231.106309041</v>
       </c>
     </row>
     <row r="10">
@@ -8336,28 +8336,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>746.6810521819802</v>
+        <v>830.6846060228672</v>
       </c>
       <c r="AB10" t="n">
-        <v>1021.641956838532</v>
+        <v>1136.579325178874</v>
       </c>
       <c r="AC10" t="n">
-        <v>924.1378823613538</v>
+        <v>1028.105789582904</v>
       </c>
       <c r="AD10" t="n">
-        <v>746681.0521819802</v>
+        <v>830684.6060228673</v>
       </c>
       <c r="AE10" t="n">
-        <v>1021641.956838532</v>
+        <v>1136579.325178874</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.751681075255574e-06</v>
+        <v>2.564395197766357e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.94921875</v>
       </c>
       <c r="AH10" t="n">
-        <v>924137.8823613538</v>
+        <v>1028105.789582903</v>
       </c>
     </row>
     <row r="11">
@@ -8442,28 +8442,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>727.416460658382</v>
+        <v>803.1732726534092</v>
       </c>
       <c r="AB11" t="n">
-        <v>995.2832928221496</v>
+        <v>1098.937105148413</v>
       </c>
       <c r="AC11" t="n">
-        <v>900.2948522440774</v>
+        <v>994.0560902009621</v>
       </c>
       <c r="AD11" t="n">
-        <v>727416.460658382</v>
+        <v>803173.2726534092</v>
       </c>
       <c r="AE11" t="n">
-        <v>995283.2928221496</v>
+        <v>1098937.105148413</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.765686024302335e-06</v>
+        <v>2.584897916319297e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.80598958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>900294.8522440775</v>
+        <v>994056.0902009621</v>
       </c>
     </row>
     <row r="12">
@@ -8548,28 +8548,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>712.2732825449013</v>
+        <v>788.0300945399284</v>
       </c>
       <c r="AB12" t="n">
-        <v>974.5637284574169</v>
+        <v>1078.217540783681</v>
       </c>
       <c r="AC12" t="n">
-        <v>881.5527340222236</v>
+        <v>975.3139719791084</v>
       </c>
       <c r="AD12" t="n">
-        <v>712273.2825449014</v>
+        <v>788030.0945399285</v>
       </c>
       <c r="AE12" t="n">
-        <v>974563.7284574169</v>
+        <v>1078217.540783681</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.773992407874896e-06</v>
+        <v>2.597058149392075e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.724609375</v>
       </c>
       <c r="AH12" t="n">
-        <v>881552.7340222236</v>
+        <v>975313.9719791084</v>
       </c>
     </row>
     <row r="13">
@@ -8654,28 +8654,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>703.6407494765537</v>
+        <v>779.3975614715807</v>
       </c>
       <c r="AB13" t="n">
-        <v>962.7523158728227</v>
+        <v>1066.406128199087</v>
       </c>
       <c r="AC13" t="n">
-        <v>870.8685860772817</v>
+        <v>964.6298240341663</v>
       </c>
       <c r="AD13" t="n">
-        <v>703640.7494765536</v>
+        <v>779397.5614715808</v>
       </c>
       <c r="AE13" t="n">
-        <v>962752.3158728227</v>
+        <v>1066406.128199087</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.77998073091558e-06</v>
+        <v>2.605824829049195e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.66276041666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>870868.5860772817</v>
+        <v>964629.8240341663</v>
       </c>
     </row>
     <row r="14">
@@ -8760,28 +8760,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>700.1685197555878</v>
+        <v>775.925331750615</v>
       </c>
       <c r="AB14" t="n">
-        <v>958.0014579846332</v>
+        <v>1061.655270310897</v>
       </c>
       <c r="AC14" t="n">
-        <v>866.57114339807</v>
+        <v>960.3323813549547</v>
       </c>
       <c r="AD14" t="n">
-        <v>700168.5197555878</v>
+        <v>775925.331750615</v>
       </c>
       <c r="AE14" t="n">
-        <v>958001.4579846333</v>
+        <v>1061655.270310897</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.782395377302953e-06</v>
+        <v>2.609359780523839e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.63997395833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>866571.14339807</v>
+        <v>960332.3813549547</v>
       </c>
     </row>
     <row r="15">
@@ -8866,28 +8866,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>702.9624018208708</v>
+        <v>778.719213815898</v>
       </c>
       <c r="AB15" t="n">
-        <v>961.824170683731</v>
+        <v>1065.477983009995</v>
       </c>
       <c r="AC15" t="n">
-        <v>870.0290217623772</v>
+        <v>963.7902597192617</v>
       </c>
       <c r="AD15" t="n">
-        <v>702962.4018208708</v>
+        <v>778719.2138158981</v>
       </c>
       <c r="AE15" t="n">
-        <v>961824.1706837311</v>
+        <v>1065477.983009995</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.782491963158448e-06</v>
+        <v>2.609501178582825e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.63997395833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>870029.0217623771</v>
+        <v>963790.2597192617</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>864.7776122310855</v>
+        <v>950.2178778162748</v>
       </c>
       <c r="AB2" t="n">
-        <v>1183.22688035024</v>
+        <v>1300.130021082386</v>
       </c>
       <c r="AC2" t="n">
-        <v>1070.301367558969</v>
+        <v>1176.047436614227</v>
       </c>
       <c r="AD2" t="n">
-        <v>864777.6122310855</v>
+        <v>950217.8778162749</v>
       </c>
       <c r="AE2" t="n">
-        <v>1183226.88035024</v>
+        <v>1300130.021082386</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.523194594636568e-06</v>
+        <v>2.356570050251815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.03385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1070301.367558969</v>
+        <v>1176047.436614227</v>
       </c>
     </row>
     <row r="3">
@@ -9269,28 +9269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>633.3298625442429</v>
+        <v>710.8321576860492</v>
       </c>
       <c r="AB3" t="n">
-        <v>866.549858474625</v>
+        <v>972.5919178475938</v>
       </c>
       <c r="AC3" t="n">
-        <v>783.8475561921709</v>
+        <v>879.7691102495487</v>
       </c>
       <c r="AD3" t="n">
-        <v>633329.8625442429</v>
+        <v>710832.1576860492</v>
       </c>
       <c r="AE3" t="n">
-        <v>866549.858474625</v>
+        <v>972591.9178475938</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.814727983053176e-06</v>
+        <v>2.807608186948281e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.33268229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>783847.5561921709</v>
+        <v>879769.1102495487</v>
       </c>
     </row>
     <row r="4">
@@ -9375,28 +9375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>559.7628711255459</v>
+        <v>629.5832183876838</v>
       </c>
       <c r="AB4" t="n">
-        <v>765.8922552689613</v>
+        <v>861.4235346493463</v>
       </c>
       <c r="AC4" t="n">
-        <v>692.7965733626226</v>
+        <v>779.2104815179362</v>
       </c>
       <c r="AD4" t="n">
-        <v>559762.8711255458</v>
+        <v>629583.2183876839</v>
       </c>
       <c r="AE4" t="n">
-        <v>765892.2552689613</v>
+        <v>861423.5346493463</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.917222715912397e-06</v>
+        <v>2.966180189905153e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.29752604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>692796.5733626225</v>
+        <v>779210.4815179361</v>
       </c>
     </row>
     <row r="5">
@@ -9481,28 +9481,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>539.8207261863494</v>
+        <v>609.6410734484874</v>
       </c>
       <c r="AB5" t="n">
-        <v>738.6065327778103</v>
+        <v>834.1378121581953</v>
       </c>
       <c r="AC5" t="n">
-        <v>668.1149619302748</v>
+        <v>754.5288700855886</v>
       </c>
       <c r="AD5" t="n">
-        <v>539820.7261863494</v>
+        <v>609641.0734484874</v>
       </c>
       <c r="AE5" t="n">
-        <v>738606.5327778104</v>
+        <v>834137.8121581953</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.944597754972589e-06</v>
+        <v>3.008532754312141e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.04036458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>668114.9619302748</v>
+        <v>754528.8700855885</v>
       </c>
     </row>
     <row r="6">
@@ -9587,28 +9587,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>541.6940700768318</v>
+        <v>611.5144173389699</v>
       </c>
       <c r="AB6" t="n">
-        <v>741.169724534868</v>
+        <v>836.7010039152528</v>
       </c>
       <c r="AC6" t="n">
-        <v>670.4335262635011</v>
+        <v>756.8474344188148</v>
       </c>
       <c r="AD6" t="n">
-        <v>541694.0700768318</v>
+        <v>611514.4173389699</v>
       </c>
       <c r="AE6" t="n">
-        <v>741169.724534868</v>
+        <v>836701.0039152529</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.947184372836544e-06</v>
+        <v>3.012534571421463e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.017578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>670433.5262635011</v>
+        <v>756847.4344188148</v>
       </c>
     </row>
   </sheetData>
@@ -9884,28 +9884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1191.605857476002</v>
+        <v>1303.735692931283</v>
       </c>
       <c r="AB2" t="n">
-        <v>1630.407704138897</v>
+        <v>1783.828691828024</v>
       </c>
       <c r="AC2" t="n">
-        <v>1474.803881147465</v>
+        <v>1613.58258509925</v>
       </c>
       <c r="AD2" t="n">
-        <v>1191605.857476002</v>
+        <v>1303735.692931283</v>
       </c>
       <c r="AE2" t="n">
-        <v>1630407.704138897</v>
+        <v>1783828.691828024</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.297275094801728e-06</v>
+        <v>1.96056402618054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.87239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1474803.881147465</v>
+        <v>1613582.58509925</v>
       </c>
     </row>
     <row r="3">
@@ -9990,28 +9990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>807.5398073166947</v>
+        <v>887.6692110881199</v>
       </c>
       <c r="AB3" t="n">
-        <v>1104.911590512634</v>
+        <v>1214.5481758125</v>
       </c>
       <c r="AC3" t="n">
-        <v>999.4603790672644</v>
+        <v>1098.633402542026</v>
       </c>
       <c r="AD3" t="n">
-        <v>807539.8073166946</v>
+        <v>887669.2110881199</v>
       </c>
       <c r="AE3" t="n">
-        <v>1104911.590512634</v>
+        <v>1214548.1758125</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.641338597532087e-06</v>
+        <v>2.480545122617074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.44921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>999460.3790672644</v>
+        <v>1098633.402542026</v>
       </c>
     </row>
     <row r="4">
@@ -10096,28 +10096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>713.3378190238797</v>
+        <v>785.5310981381321</v>
       </c>
       <c r="AB4" t="n">
-        <v>976.0202742319901</v>
+        <v>1074.798303658803</v>
       </c>
       <c r="AC4" t="n">
-        <v>882.8702691123467</v>
+        <v>972.2210620464992</v>
       </c>
       <c r="AD4" t="n">
-        <v>713337.8190238797</v>
+        <v>785531.098138132</v>
       </c>
       <c r="AE4" t="n">
-        <v>976020.2742319901</v>
+        <v>1074798.303658803</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.760838028057853e-06</v>
+        <v>2.661143891202612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.05924479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>882870.2691123467</v>
+        <v>972221.0620464992</v>
       </c>
     </row>
     <row r="5">
@@ -10202,28 +10202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>657.4707992787221</v>
+        <v>729.5787375384028</v>
       </c>
       <c r="AB5" t="n">
-        <v>899.5805531377025</v>
+        <v>998.2418154423174</v>
       </c>
       <c r="AC5" t="n">
-        <v>813.7258477154757</v>
+        <v>902.9710176176893</v>
       </c>
       <c r="AD5" t="n">
-        <v>657470.7992787221</v>
+        <v>729578.7375384028</v>
       </c>
       <c r="AE5" t="n">
-        <v>899580.5531377025</v>
+        <v>998241.8154423174</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.825175944061373e-06</v>
+        <v>2.758377395600693e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.388671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>813725.8477154756</v>
+        <v>902971.0176176893</v>
       </c>
     </row>
     <row r="6">
@@ -10308,28 +10308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>624.4265221395183</v>
+        <v>696.5344603991989</v>
       </c>
       <c r="AB6" t="n">
-        <v>854.3679153452237</v>
+        <v>953.0291776498384</v>
       </c>
       <c r="AC6" t="n">
-        <v>772.8282406175749</v>
+        <v>862.0734105197887</v>
       </c>
       <c r="AD6" t="n">
-        <v>624426.5221395183</v>
+        <v>696534.4603991989</v>
       </c>
       <c r="AE6" t="n">
-        <v>854367.9153452236</v>
+        <v>953029.1776498384</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.861881549986458e-06</v>
+        <v>2.813850356443189e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.02734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>772828.2406175749</v>
+        <v>862073.4105197887</v>
       </c>
     </row>
     <row r="7">
@@ -10414,28 +10414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>593.7826213951948</v>
+        <v>673.8265948034974</v>
       </c>
       <c r="AB7" t="n">
-        <v>812.4395784333527</v>
+        <v>921.959274141473</v>
       </c>
       <c r="AC7" t="n">
-        <v>734.9014853337826</v>
+        <v>833.9687749953785</v>
       </c>
       <c r="AD7" t="n">
-        <v>593782.6213951948</v>
+        <v>673826.5948034974</v>
       </c>
       <c r="AE7" t="n">
-        <v>812439.5784333528</v>
+        <v>921959.274141473</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.88332752198763e-06</v>
+        <v>2.846261524575882e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.822265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>734901.4853337826</v>
+        <v>833968.7749953785</v>
       </c>
     </row>
     <row r="8">
@@ -10520,28 +10520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>592.846624830401</v>
+        <v>665.039814436102</v>
       </c>
       <c r="AB8" t="n">
-        <v>811.1589066401475</v>
+        <v>909.9368135974117</v>
       </c>
       <c r="AC8" t="n">
-        <v>733.743039059087</v>
+        <v>823.0937212120128</v>
       </c>
       <c r="AD8" t="n">
-        <v>592846.6248304009</v>
+        <v>665039.8144361021</v>
       </c>
       <c r="AE8" t="n">
-        <v>811158.9066401476</v>
+        <v>909936.8135974117</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.88528652904543e-06</v>
+        <v>2.849222160126465e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.802734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>733743.0390590869</v>
+        <v>823093.7212120128</v>
       </c>
     </row>
   </sheetData>
@@ -10817,28 +10817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>658.1204699762731</v>
+        <v>741.0968057842334</v>
       </c>
       <c r="AB2" t="n">
-        <v>900.4694612475399</v>
+        <v>1014.001344557571</v>
       </c>
       <c r="AC2" t="n">
-        <v>814.5299196829004</v>
+        <v>917.2264793928211</v>
       </c>
       <c r="AD2" t="n">
-        <v>658120.469976273</v>
+        <v>741096.8057842334</v>
       </c>
       <c r="AE2" t="n">
-        <v>900469.46124754</v>
+        <v>1014001.344557571</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.71595096416553e-06</v>
+        <v>2.712039890880308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.23372395833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>814529.9196829004</v>
+        <v>917226.4793928212</v>
       </c>
     </row>
     <row r="3">
@@ -10923,28 +10923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>504.7001552698147</v>
+        <v>580.2029307866546</v>
       </c>
       <c r="AB3" t="n">
-        <v>690.5530182395704</v>
+        <v>793.8592466490801</v>
       </c>
       <c r="AC3" t="n">
-        <v>624.6476073760334</v>
+        <v>718.0944343373417</v>
       </c>
       <c r="AD3" t="n">
-        <v>504700.1552698147</v>
+        <v>580202.9307866546</v>
       </c>
       <c r="AE3" t="n">
-        <v>690553.0182395704</v>
+        <v>793859.2466490801</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.959631671862096e-06</v>
+        <v>3.0971743228729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>624647.6073760334</v>
+        <v>718094.4343373417</v>
       </c>
     </row>
     <row r="4">
@@ -11029,28 +11029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>492.7867735638861</v>
+        <v>560.7308269521358</v>
       </c>
       <c r="AB4" t="n">
-        <v>674.2526038082117</v>
+        <v>767.216655134099</v>
       </c>
       <c r="AC4" t="n">
-        <v>609.9028816202282</v>
+        <v>693.9945743634383</v>
       </c>
       <c r="AD4" t="n">
-        <v>492786.7735638861</v>
+        <v>560730.8269521358</v>
       </c>
       <c r="AE4" t="n">
-        <v>674252.6038082117</v>
+        <v>767216.6551340991</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.982578178558374e-06</v>
+        <v>3.133441001126681e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.37890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>609902.8816202282</v>
+        <v>693994.5743634383</v>
       </c>
     </row>
   </sheetData>
@@ -11326,28 +11326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2285.364424342953</v>
+        <v>2429.340278088418</v>
       </c>
       <c r="AB2" t="n">
-        <v>3126.936428548867</v>
+        <v>3323.930543409806</v>
       </c>
       <c r="AC2" t="n">
-        <v>2828.506004490886</v>
+        <v>3006.699277512466</v>
       </c>
       <c r="AD2" t="n">
-        <v>2285364.424342953</v>
+        <v>2429340.278088418</v>
       </c>
       <c r="AE2" t="n">
-        <v>3126936.428548867</v>
+        <v>3323930.543409806</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.116204385678212e-07</v>
+        <v>1.329038938076764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.1796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2828506.004490886</v>
+        <v>3006699.277512466</v>
       </c>
     </row>
     <row r="3">
@@ -11432,28 +11432,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1232.567624900651</v>
+        <v>1334.087224529343</v>
       </c>
       <c r="AB3" t="n">
-        <v>1686.453401434942</v>
+        <v>1825.35699637556</v>
       </c>
       <c r="AC3" t="n">
-        <v>1525.500655754205</v>
+        <v>1651.147486546111</v>
       </c>
       <c r="AD3" t="n">
-        <v>1232567.62490065</v>
+        <v>1334087.224529343</v>
       </c>
       <c r="AE3" t="n">
-        <v>1686453.401434942</v>
+        <v>1825356.99637556</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.338140878956125e-06</v>
+        <v>1.950857240058079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.28450520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1525500.655754205</v>
+        <v>1651147.486546111</v>
       </c>
     </row>
     <row r="4">
@@ -11538,28 +11538,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1026.458583649691</v>
+        <v>1119.589251971963</v>
       </c>
       <c r="AB4" t="n">
-        <v>1404.445918306223</v>
+        <v>1531.871407339869</v>
       </c>
       <c r="AC4" t="n">
-        <v>1270.407571015303</v>
+        <v>1385.671750218375</v>
       </c>
       <c r="AD4" t="n">
-        <v>1026458.583649691</v>
+        <v>1119589.251971963</v>
       </c>
       <c r="AE4" t="n">
-        <v>1404445.918306223</v>
+        <v>1531871.407339869</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.497607452943315e-06</v>
+        <v>2.183341371813213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.80403645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1270407.571015303</v>
+        <v>1385671.750218375</v>
       </c>
     </row>
     <row r="5">
@@ -11644,28 +11644,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>939.4216426217903</v>
+        <v>1024.163469146194</v>
       </c>
       <c r="AB5" t="n">
-        <v>1285.358135793011</v>
+        <v>1401.305641389232</v>
       </c>
       <c r="AC5" t="n">
-        <v>1162.685359324399</v>
+        <v>1267.566997719863</v>
       </c>
       <c r="AD5" t="n">
-        <v>939421.6426217903</v>
+        <v>1024163.469146194</v>
       </c>
       <c r="AE5" t="n">
-        <v>1285358.135793011</v>
+        <v>1401305.641389232</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.580403723350829e-06</v>
+        <v>2.304048919213087e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.716796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1162685.359324399</v>
+        <v>1267566.997719863</v>
       </c>
     </row>
     <row r="6">
@@ -11750,28 +11750,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>892.6196149396695</v>
+        <v>968.8873483201837</v>
       </c>
       <c r="AB6" t="n">
-        <v>1221.321536758595</v>
+        <v>1325.674414264743</v>
       </c>
       <c r="AC6" t="n">
-        <v>1104.760323425897</v>
+        <v>1199.153908763041</v>
       </c>
       <c r="AD6" t="n">
-        <v>892619.6149396695</v>
+        <v>968887.3483201837</v>
       </c>
       <c r="AE6" t="n">
-        <v>1221321.536758595</v>
+        <v>1325674.414264743</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.631612977302297e-06</v>
+        <v>2.378706188414165e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.09505208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1104760.323425897</v>
+        <v>1199153.908763041</v>
       </c>
     </row>
     <row r="7">
@@ -11856,28 +11856,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>850.9939918421943</v>
+        <v>935.650477512026</v>
       </c>
       <c r="AB7" t="n">
-        <v>1164.367522843745</v>
+        <v>1280.198261317768</v>
       </c>
       <c r="AC7" t="n">
-        <v>1053.241920663619</v>
+        <v>1158.017936027145</v>
       </c>
       <c r="AD7" t="n">
-        <v>850993.9918421943</v>
+        <v>935650.477512026</v>
       </c>
       <c r="AE7" t="n">
-        <v>1164367.522843745</v>
+        <v>1280198.261317768</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.667890187110908e-06</v>
+        <v>2.431594235193994e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.681640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1053241.920663619</v>
+        <v>1158017.936027145</v>
       </c>
     </row>
     <row r="8">
@@ -11962,28 +11962,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>826.421922796953</v>
+        <v>902.6043153228953</v>
       </c>
       <c r="AB8" t="n">
-        <v>1130.746933932867</v>
+        <v>1234.983044316817</v>
       </c>
       <c r="AC8" t="n">
-        <v>1022.830033571603</v>
+        <v>1117.117995876808</v>
       </c>
       <c r="AD8" t="n">
-        <v>826421.922796953</v>
+        <v>902604.3153228953</v>
       </c>
       <c r="AE8" t="n">
-        <v>1130746.933932867</v>
+        <v>1234983.044316817</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.693734109665854e-06</v>
+        <v>2.469271735538464e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.39518229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1022830.033571603</v>
+        <v>1117117.995876808</v>
       </c>
     </row>
     <row r="9">
@@ -12068,28 +12068,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>806.4765441909468</v>
+        <v>882.6589367168892</v>
       </c>
       <c r="AB9" t="n">
-        <v>1103.456786996128</v>
+        <v>1207.692897380078</v>
       </c>
       <c r="AC9" t="n">
-        <v>998.1444199565437</v>
+        <v>1092.432382261749</v>
       </c>
       <c r="AD9" t="n">
-        <v>806476.5441909468</v>
+        <v>882658.9367168893</v>
       </c>
       <c r="AE9" t="n">
-        <v>1103456.786996128</v>
+        <v>1207692.897380078</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.712399164844427e-06</v>
+        <v>2.496483263565024e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.19661458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>998144.4199565437</v>
+        <v>1092432.382261749</v>
       </c>
     </row>
     <row r="10">
@@ -12174,28 +12174,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>788.0042127363685</v>
+        <v>864.1866052623108</v>
       </c>
       <c r="AB10" t="n">
-        <v>1078.182128158225</v>
+        <v>1182.418238542175</v>
       </c>
       <c r="AC10" t="n">
-        <v>975.2819390849245</v>
+        <v>1069.56990139013</v>
       </c>
       <c r="AD10" t="n">
-        <v>788004.2127363684</v>
+        <v>864186.6052623107</v>
       </c>
       <c r="AE10" t="n">
-        <v>1078182.128158225</v>
+        <v>1182418.238542175</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.72780980014571e-06</v>
+        <v>2.518950217474134e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.03385416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>975281.9390849245</v>
+        <v>1069569.90139013</v>
       </c>
     </row>
     <row r="11">
@@ -12280,28 +12280,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>760.0500994923115</v>
+        <v>844.6212443075716</v>
       </c>
       <c r="AB11" t="n">
-        <v>1039.934077169268</v>
+        <v>1155.648048521095</v>
       </c>
       <c r="AC11" t="n">
-        <v>940.684228400877</v>
+        <v>1045.354620732464</v>
       </c>
       <c r="AD11" t="n">
-        <v>760050.0994923115</v>
+        <v>844621.2443075716</v>
       </c>
       <c r="AE11" t="n">
-        <v>1039934.077169269</v>
+        <v>1155648.048521094</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.740827479654868e-06</v>
+        <v>2.537928513943941e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.89713541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>940684.228400877</v>
+        <v>1045354.620732464</v>
       </c>
     </row>
     <row r="12">
@@ -12386,28 +12386,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>744.8521975035276</v>
+        <v>821.1198413754905</v>
       </c>
       <c r="AB12" t="n">
-        <v>1019.139637184099</v>
+        <v>1123.492392220698</v>
       </c>
       <c r="AC12" t="n">
-        <v>921.8743805827122</v>
+        <v>1016.26785513863</v>
       </c>
       <c r="AD12" t="n">
-        <v>744852.1975035276</v>
+        <v>821119.8413754905</v>
       </c>
       <c r="AE12" t="n">
-        <v>1019139.637184099</v>
+        <v>1123492.392220698</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.749920711664942e-06</v>
+        <v>2.551185412213291e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.80598958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>921874.3805827122</v>
+        <v>1016267.85513863</v>
       </c>
     </row>
     <row r="13">
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>732.9577950604695</v>
+        <v>809.2254389324323</v>
       </c>
       <c r="AB13" t="n">
-        <v>1002.865191017506</v>
+        <v>1107.217946054105</v>
       </c>
       <c r="AC13" t="n">
-        <v>907.1531447169301</v>
+        <v>1001.546619272848</v>
       </c>
       <c r="AD13" t="n">
-        <v>732957.7950604695</v>
+        <v>809225.4389324323</v>
       </c>
       <c r="AE13" t="n">
-        <v>1002865.191017506</v>
+        <v>1107217.946054105</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.759013943675016e-06</v>
+        <v>2.564442310482642e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.71484375</v>
       </c>
       <c r="AH13" t="n">
-        <v>907153.1447169301</v>
+        <v>1001546.619272848</v>
       </c>
     </row>
     <row r="14">
@@ -12598,28 +12598,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>723.8246412893881</v>
+        <v>800.0922851613511</v>
       </c>
       <c r="AB14" t="n">
-        <v>990.3688071016052</v>
+        <v>1094.721562138204</v>
       </c>
       <c r="AC14" t="n">
-        <v>895.849398143178</v>
+        <v>990.2428726990958</v>
       </c>
       <c r="AD14" t="n">
-        <v>723824.6412893881</v>
+        <v>800092.2851613511</v>
       </c>
       <c r="AE14" t="n">
-        <v>990368.8071016052</v>
+        <v>1094721.562138204</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.76408700995432e-06</v>
+        <v>2.571838264253963e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.66276041666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>895849.398143178</v>
+        <v>990242.8726990958</v>
       </c>
     </row>
     <row r="15">
@@ -12704,28 +12704,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>722.2806726114139</v>
+        <v>798.5483164833769</v>
       </c>
       <c r="AB15" t="n">
-        <v>988.25628104131</v>
+        <v>1092.609036077909</v>
       </c>
       <c r="AC15" t="n">
-        <v>893.9384886051284</v>
+        <v>988.3319631610464</v>
       </c>
       <c r="AD15" t="n">
-        <v>722280.672611414</v>
+        <v>798548.3164833769</v>
       </c>
       <c r="AE15" t="n">
-        <v>988256.2810413099</v>
+        <v>1092609.036077909</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.765331346966225e-06</v>
+        <v>2.573652366122401e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.64973958333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>893938.4886051285</v>
+        <v>988331.9631610464</v>
       </c>
     </row>
     <row r="16">
@@ -12810,28 +12810,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>723.3737103022274</v>
+        <v>799.6413541741903</v>
       </c>
       <c r="AB16" t="n">
-        <v>989.7518234313006</v>
+        <v>1094.1045784679</v>
       </c>
       <c r="AC16" t="n">
-        <v>895.2912985284253</v>
+        <v>989.6847730843431</v>
       </c>
       <c r="AD16" t="n">
-        <v>723373.7103022274</v>
+        <v>799641.3541741903</v>
       </c>
       <c r="AE16" t="n">
-        <v>989751.8234313006</v>
+        <v>1094104.5784679</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.76523562873454e-06</v>
+        <v>2.573512819824829e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.64973958333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>895291.2985284253</v>
+        <v>989684.7730843431</v>
       </c>
     </row>
   </sheetData>
@@ -13107,28 +13107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>552.9382980724235</v>
+        <v>627.2066665368409</v>
       </c>
       <c r="AB2" t="n">
-        <v>756.5545733387653</v>
+        <v>858.171831560955</v>
       </c>
       <c r="AC2" t="n">
-        <v>684.3500666903255</v>
+        <v>776.2691164085069</v>
       </c>
       <c r="AD2" t="n">
-        <v>552938.2980724236</v>
+        <v>627206.6665368408</v>
       </c>
       <c r="AE2" t="n">
-        <v>756554.5733387653</v>
+        <v>858171.8315609549</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.837977251780358e-06</v>
+        <v>2.944871293940741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.28971354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>684350.0666903255</v>
+        <v>776269.1164085069</v>
       </c>
     </row>
     <row r="3">
@@ -13213,28 +13213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>463.9808180149984</v>
+        <v>538.2490969708648</v>
       </c>
       <c r="AB3" t="n">
-        <v>634.8390245971557</v>
+        <v>736.4561603497967</v>
       </c>
       <c r="AC3" t="n">
-        <v>574.2508790917693</v>
+        <v>666.1698180287243</v>
       </c>
       <c r="AD3" t="n">
-        <v>463980.8180149984</v>
+        <v>538249.0969708648</v>
       </c>
       <c r="AE3" t="n">
-        <v>634839.0245971556</v>
+        <v>736456.1603497968</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.994569018884362e-06</v>
+        <v>3.195768087883839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.69466145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>574250.8790917693</v>
+        <v>666169.8180287243</v>
       </c>
     </row>
     <row r="4">
@@ -13319,28 +13319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>467.8749030690956</v>
+        <v>542.1431820249619</v>
       </c>
       <c r="AB4" t="n">
-        <v>640.1670835630794</v>
+        <v>741.7842193157204</v>
       </c>
       <c r="AC4" t="n">
-        <v>579.0704355879629</v>
+        <v>670.9893745249178</v>
       </c>
       <c r="AD4" t="n">
-        <v>467874.9030690956</v>
+        <v>542143.1820249619</v>
       </c>
       <c r="AE4" t="n">
-        <v>640167.0835630794</v>
+        <v>741784.2193157204</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.994454467481945e-06</v>
+        <v>3.195584549629309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.69466145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>579070.435587963</v>
+        <v>670989.3745249178</v>
       </c>
     </row>
   </sheetData>
@@ -13616,28 +13616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1594.755364059154</v>
+        <v>1718.082964188155</v>
       </c>
       <c r="AB2" t="n">
-        <v>2182.014644746944</v>
+        <v>2350.756908073167</v>
       </c>
       <c r="AC2" t="n">
-        <v>1973.766229529083</v>
+        <v>2126.403968074706</v>
       </c>
       <c r="AD2" t="n">
-        <v>1594755.364059154</v>
+        <v>1718082.964188155</v>
       </c>
       <c r="AE2" t="n">
-        <v>2182014.644746944</v>
+        <v>2350756.908073167</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.114549636891813e-06</v>
+        <v>1.654931446201932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1973766.229529083</v>
+        <v>2126403.968074705</v>
       </c>
     </row>
     <row r="3">
@@ -13722,28 +13722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>981.5021415133067</v>
+        <v>1072.067482555009</v>
       </c>
       <c r="AB3" t="n">
-        <v>1342.934530836972</v>
+        <v>1466.850025911089</v>
       </c>
       <c r="AC3" t="n">
-        <v>1214.766744034343</v>
+        <v>1326.855918175076</v>
       </c>
       <c r="AD3" t="n">
-        <v>981502.1415133066</v>
+        <v>1072067.482555009</v>
       </c>
       <c r="AE3" t="n">
-        <v>1342934.530836972</v>
+        <v>1466850.025911089</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.498671208177741e-06</v>
+        <v>2.225291748196526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1214766.744034342</v>
+        <v>1326855.918175076</v>
       </c>
     </row>
     <row r="4">
@@ -13828,28 +13828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>843.2604487068359</v>
+        <v>925.5925769265649</v>
       </c>
       <c r="AB4" t="n">
-        <v>1153.786147946103</v>
+        <v>1266.436598013483</v>
       </c>
       <c r="AC4" t="n">
-        <v>1043.670417335155</v>
+        <v>1145.569666554004</v>
       </c>
       <c r="AD4" t="n">
-        <v>843260.4487068359</v>
+        <v>925592.5769265649</v>
       </c>
       <c r="AE4" t="n">
-        <v>1153786.147946103</v>
+        <v>1266436.598013483</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.638089426149654e-06</v>
+        <v>2.432305940708036e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.775390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1043670.417335155</v>
+        <v>1145569.666554004</v>
       </c>
     </row>
     <row r="5">
@@ -13934,28 +13934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>777.0872612419364</v>
+        <v>859.3340486070938</v>
       </c>
       <c r="AB5" t="n">
-        <v>1063.245073501634</v>
+        <v>1175.778756446816</v>
       </c>
       <c r="AC5" t="n">
-        <v>961.7704559604707</v>
+        <v>1063.564082147381</v>
       </c>
       <c r="AD5" t="n">
-        <v>777087.2612419364</v>
+        <v>859334.0486070937</v>
       </c>
       <c r="AE5" t="n">
-        <v>1063245.073501634</v>
+        <v>1175778.756446816</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.710435639187186e-06</v>
+        <v>2.539728722974893e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.93880208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>961770.4559604707</v>
+        <v>1063564.082147381</v>
       </c>
     </row>
     <row r="6">
@@ -14040,28 +14040,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>741.1079384117178</v>
+        <v>823.184133576283</v>
       </c>
       <c r="AB6" t="n">
-        <v>1014.016576709632</v>
+        <v>1126.316847879967</v>
       </c>
       <c r="AC6" t="n">
-        <v>917.2402578096678</v>
+        <v>1018.822748713927</v>
       </c>
       <c r="AD6" t="n">
-        <v>741107.9384117178</v>
+        <v>823184.133576283</v>
       </c>
       <c r="AE6" t="n">
-        <v>1014016.576709632</v>
+        <v>1126316.847879967</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.752529790651939e-06</v>
+        <v>2.60223193741627e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.48307291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>917240.2578096678</v>
+        <v>1018822.748713927</v>
       </c>
     </row>
     <row r="7">
@@ -14146,28 +14146,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>712.2297025495544</v>
+        <v>786.2433666012899</v>
       </c>
       <c r="AB7" t="n">
-        <v>974.5041003851695</v>
+        <v>1075.772860793162</v>
       </c>
       <c r="AC7" t="n">
-        <v>881.4987967695033</v>
+        <v>973.102608815755</v>
       </c>
       <c r="AD7" t="n">
-        <v>712229.7025495544</v>
+        <v>786243.3666012899</v>
       </c>
       <c r="AE7" t="n">
-        <v>974504.1003851695</v>
+        <v>1075772.860793162</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.783478445747774e-06</v>
+        <v>2.648185837395627e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.1640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>881498.7967695033</v>
+        <v>973102.608815755</v>
       </c>
     </row>
     <row r="8">
@@ -14252,28 +14252,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>680.9418871199143</v>
+        <v>763.1033336304999</v>
       </c>
       <c r="AB8" t="n">
-        <v>931.6947309933372</v>
+        <v>1044.111646816322</v>
       </c>
       <c r="AC8" t="n">
-        <v>842.7750935091001</v>
+        <v>944.4630966640711</v>
       </c>
       <c r="AD8" t="n">
-        <v>680941.8871199143</v>
+        <v>763103.3336304999</v>
       </c>
       <c r="AE8" t="n">
-        <v>931694.7309933372</v>
+        <v>1044111.646816322</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.805570411764737e-06</v>
+        <v>2.68098894284713e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.939453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>842775.0935091001</v>
+        <v>944463.0966640712</v>
       </c>
     </row>
     <row r="9">
@@ -14358,28 +14358,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>661.0497734374273</v>
+        <v>735.1486888351836</v>
       </c>
       <c r="AB9" t="n">
-        <v>904.4774634748394</v>
+        <v>1005.862868535481</v>
       </c>
       <c r="AC9" t="n">
-        <v>818.1554038028929</v>
+        <v>909.8647280998567</v>
       </c>
       <c r="AD9" t="n">
-        <v>661049.7734374274</v>
+        <v>735148.6888351836</v>
       </c>
       <c r="AE9" t="n">
-        <v>904477.4634748393</v>
+        <v>1005862.868535481</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.820596929190689e-06</v>
+        <v>2.703300965023602e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.79296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>818155.4038028929</v>
+        <v>909864.7280998568</v>
       </c>
     </row>
     <row r="10">
@@ -14464,28 +14464,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>649.7230391357056</v>
+        <v>723.8219545334618</v>
       </c>
       <c r="AB10" t="n">
-        <v>888.9797259029733</v>
+        <v>990.3651309636151</v>
       </c>
       <c r="AC10" t="n">
-        <v>804.1367485536744</v>
+        <v>895.8460728506383</v>
       </c>
       <c r="AD10" t="n">
-        <v>649723.0391357056</v>
+        <v>723821.9545334618</v>
       </c>
       <c r="AE10" t="n">
-        <v>888979.7259029733</v>
+        <v>990365.1309636151</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.82855799802563e-06</v>
+        <v>2.715121903925044e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.71484375</v>
       </c>
       <c r="AH10" t="n">
-        <v>804136.7485536743</v>
+        <v>895846.0728506383</v>
       </c>
     </row>
     <row r="11">
@@ -14570,28 +14570,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>650.3954301201951</v>
+        <v>724.4943455179513</v>
       </c>
       <c r="AB11" t="n">
-        <v>889.8997209117487</v>
+        <v>991.2851259723905</v>
       </c>
       <c r="AC11" t="n">
-        <v>804.9689405300335</v>
+        <v>896.6782648269972</v>
       </c>
       <c r="AD11" t="n">
-        <v>650395.4301201951</v>
+        <v>724494.3455179513</v>
       </c>
       <c r="AE11" t="n">
-        <v>889899.7209117487</v>
+        <v>991285.1259723904</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.830747291955239e-06</v>
+        <v>2.718372662122941e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.6953125</v>
       </c>
       <c r="AH11" t="n">
-        <v>804968.9405300334</v>
+        <v>896678.2648269972</v>
       </c>
     </row>
   </sheetData>
@@ -14867,28 +14867,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1905.996977647307</v>
+        <v>2039.562483393062</v>
       </c>
       <c r="AB2" t="n">
-        <v>2607.869151469161</v>
+        <v>2790.619368924745</v>
       </c>
       <c r="AC2" t="n">
-        <v>2358.977779820286</v>
+        <v>2524.28657301345</v>
       </c>
       <c r="AD2" t="n">
-        <v>1905996.977647307</v>
+        <v>2039562.483393062</v>
       </c>
       <c r="AE2" t="n">
-        <v>2607869.151469161</v>
+        <v>2790619.368924745</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009158816070615e-06</v>
+        <v>1.483909991350934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.45182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2358977.779820286</v>
+        <v>2524286.57301345</v>
       </c>
     </row>
     <row r="3">
@@ -14973,28 +14973,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1103.915401358724</v>
+        <v>1195.773717350818</v>
       </c>
       <c r="AB3" t="n">
-        <v>1510.425753449349</v>
+        <v>1636.110353892621</v>
       </c>
       <c r="AC3" t="n">
-        <v>1366.272839436002</v>
+        <v>1479.962278012412</v>
       </c>
       <c r="AD3" t="n">
-        <v>1103915.401358725</v>
+        <v>1195773.717350818</v>
       </c>
       <c r="AE3" t="n">
-        <v>1510425.753449349</v>
+        <v>1636110.353892621</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415259924180191e-06</v>
+        <v>2.081058311541914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.42513020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1366272.839436002</v>
+        <v>1479962.278012412</v>
       </c>
     </row>
     <row r="4">
@@ -15079,28 +15079,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>938.2612561730183</v>
+        <v>1021.761066043465</v>
       </c>
       <c r="AB4" t="n">
-        <v>1283.770443861163</v>
+        <v>1398.018567477534</v>
       </c>
       <c r="AC4" t="n">
-        <v>1161.249194482188</v>
+        <v>1264.59363752886</v>
       </c>
       <c r="AD4" t="n">
-        <v>938261.2561730182</v>
+        <v>1021761.066043465</v>
       </c>
       <c r="AE4" t="n">
-        <v>1283770.443861163</v>
+        <v>1398018.567477534</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.565024942681105e-06</v>
+        <v>2.301279156635154e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.27994791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1161249.194482188</v>
+        <v>1264593.63752886</v>
       </c>
     </row>
     <row r="5">
@@ -15185,28 +15185,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>863.5467907395939</v>
+        <v>946.9612597554687</v>
       </c>
       <c r="AB5" t="n">
-        <v>1181.542816085569</v>
+        <v>1295.674172579742</v>
       </c>
       <c r="AC5" t="n">
-        <v>1068.77802802412</v>
+        <v>1172.016848038853</v>
       </c>
       <c r="AD5" t="n">
-        <v>863546.7907395939</v>
+        <v>946961.2597554687</v>
       </c>
       <c r="AE5" t="n">
-        <v>1181542.816085569</v>
+        <v>1295674.172579742</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.642247530345639e-06</v>
+        <v>2.414830529886356e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.326171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1068778.02802412</v>
+        <v>1172016.848038853</v>
       </c>
     </row>
     <row r="6">
@@ -15291,28 +15291,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>812.5265740335021</v>
+        <v>896.0262943953975</v>
       </c>
       <c r="AB6" t="n">
-        <v>1111.734704735191</v>
+        <v>1225.982705882013</v>
       </c>
       <c r="AC6" t="n">
-        <v>1005.632304844722</v>
+        <v>1108.976637110167</v>
       </c>
       <c r="AD6" t="n">
-        <v>812526.5740335021</v>
+        <v>896026.2943953975</v>
       </c>
       <c r="AE6" t="n">
-        <v>1111734.704735191</v>
+        <v>1225982.705882013</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.690901660704986e-06</v>
+        <v>2.486373629952455e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.76953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1005632.304844722</v>
+        <v>1108976.637110167</v>
       </c>
     </row>
     <row r="7">
@@ -15397,28 +15397,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>782.4289104063773</v>
+        <v>857.5702141551769</v>
       </c>
       <c r="AB7" t="n">
-        <v>1070.553753545352</v>
+        <v>1173.36540033482</v>
       </c>
       <c r="AC7" t="n">
-        <v>968.3816058386127</v>
+        <v>1061.381053355546</v>
       </c>
       <c r="AD7" t="n">
-        <v>782428.9104063773</v>
+        <v>857570.2141551769</v>
       </c>
       <c r="AE7" t="n">
-        <v>1070553.753545352</v>
+        <v>1173365.40033482</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.724345281372833e-06</v>
+        <v>2.53555055043877e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.408203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>968381.6058386127</v>
+        <v>1061381.053355546</v>
       </c>
     </row>
     <row r="8">
@@ -15503,28 +15503,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>760.488950349561</v>
+        <v>835.6302540983609</v>
       </c>
       <c r="AB8" t="n">
-        <v>1040.534532272891</v>
+        <v>1143.346179062359</v>
       </c>
       <c r="AC8" t="n">
-        <v>941.2273769121537</v>
+        <v>1034.226824429088</v>
       </c>
       <c r="AD8" t="n">
-        <v>760488.9503495611</v>
+        <v>835630.2540983609</v>
       </c>
       <c r="AE8" t="n">
-        <v>1040534.532272891</v>
+        <v>1143346.179062359</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.746576026306562e-06</v>
+        <v>2.568239582132298e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.17057291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>941227.3769121537</v>
+        <v>1034226.824429088</v>
       </c>
     </row>
     <row r="9">
@@ -15609,28 +15609,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>739.9692167891706</v>
+        <v>815.1105205379702</v>
       </c>
       <c r="AB9" t="n">
-        <v>1012.45852754881</v>
+        <v>1115.270174338278</v>
       </c>
       <c r="AC9" t="n">
-        <v>915.8309066740192</v>
+        <v>1008.830354190953</v>
       </c>
       <c r="AD9" t="n">
-        <v>739969.2167891705</v>
+        <v>815110.5205379701</v>
       </c>
       <c r="AE9" t="n">
-        <v>1012458.52754881</v>
+        <v>1115270.174338278</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.7629565752051e-06</v>
+        <v>2.592326237064371e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.00455729166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>915830.9066740192</v>
+        <v>1008830.354190953</v>
       </c>
     </row>
     <row r="10">
@@ -15715,28 +15715,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>712.1174006810709</v>
+        <v>795.5317801883946</v>
       </c>
       <c r="AB10" t="n">
-        <v>974.3504440143016</v>
+        <v>1088.481678038925</v>
       </c>
       <c r="AC10" t="n">
-        <v>881.3598051470127</v>
+        <v>984.5985143805198</v>
       </c>
       <c r="AD10" t="n">
-        <v>712117.4006810709</v>
+        <v>795531.7801883946</v>
       </c>
       <c r="AE10" t="n">
-        <v>974350.4440143016</v>
+        <v>1088481.678038925</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.778947111034625e-06</v>
+        <v>2.615839400212348e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.841796875</v>
       </c>
       <c r="AH10" t="n">
-        <v>881359.8051470127</v>
+        <v>984598.5143805197</v>
       </c>
     </row>
     <row r="11">
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>693.5882400374513</v>
+        <v>768.8147951322717</v>
       </c>
       <c r="AB11" t="n">
-        <v>948.9980289728264</v>
+        <v>1051.926320414944</v>
       </c>
       <c r="AC11" t="n">
-        <v>858.4269890147583</v>
+        <v>951.531948782404</v>
       </c>
       <c r="AD11" t="n">
-        <v>693588.2400374514</v>
+        <v>768814.7951322717</v>
       </c>
       <c r="AE11" t="n">
-        <v>948998.0289728264</v>
+        <v>1051926.320414944</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.789574967165223e-06</v>
+        <v>2.63146705132899e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH11" t="n">
-        <v>858426.9890147583</v>
+        <v>951531.9487824041</v>
       </c>
     </row>
     <row r="12">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>686.8458860718832</v>
+        <v>762.0724411667036</v>
       </c>
       <c r="AB12" t="n">
-        <v>939.7728428254723</v>
+        <v>1042.70113426759</v>
       </c>
       <c r="AC12" t="n">
-        <v>850.0822416856773</v>
+        <v>943.1872014533235</v>
       </c>
       <c r="AD12" t="n">
-        <v>686845.8860718833</v>
+        <v>762072.4411667036</v>
       </c>
       <c r="AE12" t="n">
-        <v>939772.8428254722</v>
+        <v>1042701.13426759</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.795132653398656e-06</v>
+        <v>2.639639309252372e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.67903645833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>850082.2416856773</v>
+        <v>943187.2014533235</v>
       </c>
     </row>
     <row r="13">
@@ -16033,28 +16033,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>683.6331288095058</v>
+        <v>758.8596839043261</v>
       </c>
       <c r="AB13" t="n">
-        <v>935.3770066022402</v>
+        <v>1038.305298044358</v>
       </c>
       <c r="AC13" t="n">
-        <v>846.1059379019956</v>
+        <v>939.2108976696418</v>
       </c>
       <c r="AD13" t="n">
-        <v>683633.1288095058</v>
+        <v>758859.6839043261</v>
       </c>
       <c r="AE13" t="n">
-        <v>935377.0066022401</v>
+        <v>1038305.298044358</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.797667738347239e-06</v>
+        <v>2.643367005849002e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH13" t="n">
-        <v>846105.9379019956</v>
+        <v>939210.8976696418</v>
       </c>
     </row>
   </sheetData>
@@ -16330,28 +16330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2727.734703511202</v>
+        <v>2890.622020268865</v>
       </c>
       <c r="AB2" t="n">
-        <v>3732.206960506248</v>
+        <v>3955.076573375341</v>
       </c>
       <c r="AC2" t="n">
-        <v>3376.010366380758</v>
+        <v>3577.609616197084</v>
       </c>
       <c r="AD2" t="n">
-        <v>2727734.703511203</v>
+        <v>2890622.020268865</v>
       </c>
       <c r="AE2" t="n">
-        <v>3732206.960506248</v>
+        <v>3955076.573375341</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.239541059955601e-07</v>
+        <v>1.19207414730848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.18098958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3376010.366380758</v>
+        <v>3577609.616197084</v>
       </c>
     </row>
     <row r="3">
@@ -16436,28 +16436,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1370.694014162278</v>
+        <v>1473.592705316207</v>
       </c>
       <c r="AB3" t="n">
-        <v>1875.444020928922</v>
+        <v>2016.234549735595</v>
       </c>
       <c r="AC3" t="n">
-        <v>1696.45427577368</v>
+        <v>1823.807954111793</v>
       </c>
       <c r="AD3" t="n">
-        <v>1370694.014162278</v>
+        <v>1473592.705316207</v>
       </c>
       <c r="AE3" t="n">
-        <v>1875444.020928922</v>
+        <v>2016234.549735595</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.265435397968738e-06</v>
+        <v>1.830797142742413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.208984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1696454.27577368</v>
+        <v>1823807.954111793</v>
       </c>
     </row>
     <row r="4">
@@ -16542,28 +16542,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1125.948205898323</v>
+        <v>1220.179560989352</v>
       </c>
       <c r="AB4" t="n">
-        <v>1540.572008639163</v>
+        <v>1669.503505868694</v>
       </c>
       <c r="AC4" t="n">
-        <v>1393.541978341034</v>
+        <v>1510.168434431473</v>
       </c>
       <c r="AD4" t="n">
-        <v>1125948.205898323</v>
+        <v>1220179.560989352</v>
       </c>
       <c r="AE4" t="n">
-        <v>1540572.008639162</v>
+        <v>1669503.505868694</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.433990715368858e-06</v>
+        <v>2.074658341809174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.36393229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1393541.978341034</v>
+        <v>1510168.434431473</v>
       </c>
     </row>
     <row r="5">
@@ -16648,28 +16648,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1024.149314323224</v>
+        <v>1109.884015060495</v>
       </c>
       <c r="AB5" t="n">
-        <v>1401.286274135978</v>
+        <v>1518.592274032764</v>
       </c>
       <c r="AC5" t="n">
-        <v>1267.549478850078</v>
+        <v>1373.65995875672</v>
       </c>
       <c r="AD5" t="n">
-        <v>1024149.314323224</v>
+        <v>1109884.015060495</v>
       </c>
       <c r="AE5" t="n">
-        <v>1401286.274135978</v>
+        <v>1518592.274032764</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.523679837357866e-06</v>
+        <v>2.204418097649834e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1267549.478850078</v>
+        <v>1373659.95875672</v>
       </c>
     </row>
     <row r="6">
@@ -16754,28 +16754,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>964.9368079108197</v>
+        <v>1050.586167793519</v>
       </c>
       <c r="AB6" t="n">
-        <v>1320.269110591109</v>
+        <v>1437.458343365697</v>
       </c>
       <c r="AC6" t="n">
-        <v>1194.264479685627</v>
+        <v>1300.269336560331</v>
       </c>
       <c r="AD6" t="n">
-        <v>964936.8079108197</v>
+        <v>1050586.167793519</v>
       </c>
       <c r="AE6" t="n">
-        <v>1320269.110591109</v>
+        <v>1437458.343365697</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.576006334551873e-06</v>
+        <v>2.28012263516023e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.44010416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1194264.479685627</v>
+        <v>1300269.336560331</v>
       </c>
     </row>
     <row r="7">
@@ -16860,28 +16860,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>919.3010972228168</v>
+        <v>1005.035708451537</v>
       </c>
       <c r="AB7" t="n">
-        <v>1257.828317922319</v>
+        <v>1375.134195349557</v>
       </c>
       <c r="AC7" t="n">
-        <v>1137.782948632945</v>
+        <v>1243.89331775836</v>
       </c>
       <c r="AD7" t="n">
-        <v>919301.0972228168</v>
+        <v>1005035.708451537</v>
       </c>
       <c r="AE7" t="n">
-        <v>1257828.31792232</v>
+        <v>1375134.195349557</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.614874757827278e-06</v>
+        <v>2.336356401332521e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.97135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1137782.948632945</v>
+        <v>1243893.31775836</v>
       </c>
     </row>
     <row r="8">
@@ -16966,28 +16966,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>890.5643152041109</v>
+        <v>976.2989264328313</v>
       </c>
       <c r="AB8" t="n">
-        <v>1218.509384986979</v>
+        <v>1335.815262414216</v>
       </c>
       <c r="AC8" t="n">
-        <v>1102.216559472484</v>
+        <v>1208.326928597899</v>
       </c>
       <c r="AD8" t="n">
-        <v>890564.3152041109</v>
+        <v>976298.9264328313</v>
       </c>
       <c r="AE8" t="n">
-        <v>1218509.384986979</v>
+        <v>1335815.262414217</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.64282614211976e-06</v>
+        <v>2.376795695650124e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.64908854166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1102216.559472484</v>
+        <v>1208326.928597899</v>
       </c>
     </row>
     <row r="9">
@@ -17072,28 +17072,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>869.2071691866796</v>
+        <v>946.3598747156217</v>
       </c>
       <c r="AB9" t="n">
-        <v>1189.287595595145</v>
+        <v>1294.851331036987</v>
       </c>
       <c r="AC9" t="n">
-        <v>1075.783656647167</v>
+        <v>1171.272537338074</v>
       </c>
       <c r="AD9" t="n">
-        <v>869207.1691866796</v>
+        <v>946359.8747156217</v>
       </c>
       <c r="AE9" t="n">
-        <v>1189287.595595145</v>
+        <v>1294851.331036987</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.664283770465504e-06</v>
+        <v>2.407840002398992e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.408203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1075783.656647167</v>
+        <v>1171272.537338074</v>
       </c>
     </row>
     <row r="10">
@@ -17178,28 +17178,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>853.1013658026877</v>
+        <v>930.2540713316297</v>
       </c>
       <c r="AB10" t="n">
-        <v>1167.250924867269</v>
+        <v>1272.814660309112</v>
       </c>
       <c r="AC10" t="n">
-        <v>1055.850134844899</v>
+        <v>1151.339015535805</v>
       </c>
       <c r="AD10" t="n">
-        <v>853101.3658026877</v>
+        <v>930254.0713316296</v>
       </c>
       <c r="AE10" t="n">
-        <v>1167250.924867269</v>
+        <v>1272814.660309112</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.680000542104711e-06</v>
+        <v>2.430578595500135e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.23567708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1055850.134844898</v>
+        <v>1151339.015535805</v>
       </c>
     </row>
     <row r="11">
@@ -17284,28 +17284,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>836.4431505449064</v>
+        <v>913.5958560738482</v>
       </c>
       <c r="AB11" t="n">
-        <v>1144.458419842983</v>
+        <v>1250.022155284825</v>
       </c>
       <c r="AC11" t="n">
-        <v>1035.232914510648</v>
+        <v>1130.721795201555</v>
       </c>
       <c r="AD11" t="n">
-        <v>836443.1505449064</v>
+        <v>913595.8560738482</v>
       </c>
       <c r="AE11" t="n">
-        <v>1144458.419842983</v>
+        <v>1250022.155284825</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.693176278808238e-06</v>
+        <v>2.449640889117861e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.09244791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1035232.914510648</v>
+        <v>1130721.795201555</v>
       </c>
     </row>
     <row r="12">
@@ -17390,28 +17390,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>812.1235081091455</v>
+        <v>897.772778483294</v>
       </c>
       <c r="AB12" t="n">
-        <v>1111.183212155473</v>
+        <v>1228.372322460513</v>
       </c>
       <c r="AC12" t="n">
-        <v>1005.133445942787</v>
+        <v>1111.138192036263</v>
       </c>
       <c r="AD12" t="n">
-        <v>812123.5081091456</v>
+        <v>897772.7784832941</v>
       </c>
       <c r="AE12" t="n">
-        <v>1111183.212155473</v>
+        <v>1228372.322460513</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.704846217031362e-06</v>
+        <v>2.466524634893561e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1005133.445942787</v>
+        <v>1111138.192036263</v>
       </c>
     </row>
     <row r="13">
@@ -17496,28 +17496,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>798.6199748747242</v>
+        <v>884.2692452488727</v>
       </c>
       <c r="AB13" t="n">
-        <v>1092.707082250296</v>
+        <v>1209.896192555336</v>
       </c>
       <c r="AC13" t="n">
-        <v>988.4206519443488</v>
+        <v>1094.425398037825</v>
       </c>
       <c r="AD13" t="n">
-        <v>798619.9748747242</v>
+        <v>884269.2452488727</v>
       </c>
       <c r="AE13" t="n">
-        <v>1092707.082250296</v>
+        <v>1209896.192555336</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.713786895508755e-06</v>
+        <v>2.479459762705589e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.87434895833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>988420.6519443488</v>
+        <v>1094425.398037825</v>
       </c>
     </row>
     <row r="14">
@@ -17602,28 +17602,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>786.0243618812218</v>
+        <v>863.2623187561843</v>
       </c>
       <c r="AB14" t="n">
-        <v>1075.473208873359</v>
+        <v>1181.153588967851</v>
       </c>
       <c r="AC14" t="n">
-        <v>972.8315552546132</v>
+        <v>1068.425948196232</v>
       </c>
       <c r="AD14" t="n">
-        <v>786024.3618812218</v>
+        <v>863262.3187561843</v>
       </c>
       <c r="AE14" t="n">
-        <v>1075473.208873359</v>
+        <v>1181153.58896785</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.721221775505745e-06</v>
+        <v>2.490216342675591e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.79947916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>972831.5552546133</v>
+        <v>1068425.948196232</v>
       </c>
     </row>
     <row r="15">
@@ -17708,28 +17708,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>772.1387795511056</v>
+        <v>849.3767364260682</v>
       </c>
       <c r="AB15" t="n">
-        <v>1056.474342540635</v>
+        <v>1162.154722635127</v>
       </c>
       <c r="AC15" t="n">
-        <v>955.6459140596089</v>
+        <v>1051.240307001228</v>
       </c>
       <c r="AD15" t="n">
-        <v>772138.7795511056</v>
+        <v>849376.7364260682</v>
       </c>
       <c r="AE15" t="n">
-        <v>1056474.342540635</v>
+        <v>1162154.722635127</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.727621419047458e-06</v>
+        <v>2.499475171004201e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.73111979166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>955645.9140596089</v>
+        <v>1051240.307001228</v>
       </c>
     </row>
     <row r="16">
@@ -17814,28 +17814,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>761.4991577892528</v>
+        <v>838.7371146642154</v>
       </c>
       <c r="AB16" t="n">
-        <v>1041.916742659084</v>
+        <v>1147.597122753576</v>
       </c>
       <c r="AC16" t="n">
-        <v>942.4776710790328</v>
+        <v>1038.072064020651</v>
       </c>
       <c r="AD16" t="n">
-        <v>761499.1577892528</v>
+        <v>838737.1146642154</v>
       </c>
       <c r="AE16" t="n">
-        <v>1041916.742659084</v>
+        <v>1147597.122753576</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.732797601323844e-06</v>
+        <v>2.506963929211165e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.67903645833333</v>
       </c>
       <c r="AH16" t="n">
-        <v>942477.6710790328</v>
+        <v>1038072.064020652</v>
       </c>
     </row>
     <row r="17">
@@ -17920,28 +17920,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>754.5277397771574</v>
+        <v>831.7656966521203</v>
       </c>
       <c r="AB17" t="n">
-        <v>1032.378140977679</v>
+        <v>1138.058521072171</v>
       </c>
       <c r="AC17" t="n">
-        <v>933.8494201545894</v>
+        <v>1029.443813096208</v>
       </c>
       <c r="AD17" t="n">
-        <v>754527.7397771574</v>
+        <v>831765.6966521202</v>
       </c>
       <c r="AE17" t="n">
-        <v>1032378.140977679</v>
+        <v>1138058.521072171</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.737597333980129e-06</v>
+        <v>2.513908050457622e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>933849.4201545895</v>
+        <v>1029443.813096208</v>
       </c>
     </row>
     <row r="18">
@@ -18026,28 +18026,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>755.2896238713679</v>
+        <v>832.5275807463305</v>
       </c>
       <c r="AB18" t="n">
-        <v>1033.420584407331</v>
+        <v>1139.100964501823</v>
       </c>
       <c r="AC18" t="n">
-        <v>934.7923742463947</v>
+        <v>1030.386767188013</v>
       </c>
       <c r="AD18" t="n">
-        <v>755289.6238713679</v>
+        <v>832527.5807463306</v>
       </c>
       <c r="AE18" t="n">
-        <v>1033420.584407331</v>
+        <v>1139100.964501823</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.737503221575104e-06</v>
+        <v>2.513771891217495e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.63346354166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>934792.3742463947</v>
+        <v>1030386.767188013</v>
       </c>
     </row>
     <row r="19">
@@ -18132,28 +18132,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>757.6624852333014</v>
+        <v>834.9004421082642</v>
       </c>
       <c r="AB19" t="n">
-        <v>1036.667238005984</v>
+        <v>1142.347618100476</v>
       </c>
       <c r="AC19" t="n">
-        <v>937.7291717822987</v>
+        <v>1033.323564723918</v>
       </c>
       <c r="AD19" t="n">
-        <v>757662.4852333014</v>
+        <v>834900.4421082642</v>
       </c>
       <c r="AE19" t="n">
-        <v>1036667.238005984</v>
+        <v>1142347.618100476</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.737503221575104e-06</v>
+        <v>2.513771891217495e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>937729.1717822987</v>
+        <v>1033323.564723918</v>
       </c>
     </row>
   </sheetData>
@@ -18429,28 +18429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1314.956915050079</v>
+        <v>1428.212903460293</v>
       </c>
       <c r="AB2" t="n">
-        <v>1799.182062976343</v>
+        <v>1954.14390282077</v>
       </c>
       <c r="AC2" t="n">
-        <v>1627.470652053765</v>
+        <v>1767.643151393748</v>
       </c>
       <c r="AD2" t="n">
-        <v>1314956.915050079</v>
+        <v>1428212.903460293</v>
       </c>
       <c r="AE2" t="n">
-        <v>1799182.062976343</v>
+        <v>1954143.90282077</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.232575127603093e-06</v>
+        <v>1.85093910476356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.88802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1627470.652053765</v>
+        <v>1767643.151393748</v>
       </c>
     </row>
     <row r="3">
@@ -18535,28 +18535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>862.1972648194477</v>
+        <v>951.1658255300642</v>
       </c>
       <c r="AB3" t="n">
-        <v>1179.696335184744</v>
+        <v>1301.427044964894</v>
       </c>
       <c r="AC3" t="n">
-        <v>1067.107772668916</v>
+        <v>1177.220674357773</v>
       </c>
       <c r="AD3" t="n">
-        <v>862197.2648194476</v>
+        <v>951165.8255300643</v>
       </c>
       <c r="AE3" t="n">
-        <v>1179696.335184744</v>
+        <v>1301427.044964894</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.591270169280418e-06</v>
+        <v>2.389585929980975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.82682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1067107.772668916</v>
+        <v>1177220.674357773</v>
       </c>
     </row>
     <row r="4">
@@ -18641,28 +18641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>756.6001765406086</v>
+        <v>837.3876766720057</v>
       </c>
       <c r="AB4" t="n">
-        <v>1035.21374038689</v>
+        <v>1145.750762159632</v>
       </c>
       <c r="AC4" t="n">
-        <v>936.4143939359741</v>
+        <v>1036.40191749041</v>
       </c>
       <c r="AD4" t="n">
-        <v>756600.1765406085</v>
+        <v>837387.6766720057</v>
       </c>
       <c r="AE4" t="n">
-        <v>1035213.74038689</v>
+        <v>1145750.762159632</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.717928310593672e-06</v>
+        <v>2.579786512033334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.29361979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>936414.3939359741</v>
+        <v>1036401.91749041</v>
       </c>
     </row>
     <row r="5">
@@ -18747,28 +18747,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>697.7788049154678</v>
+        <v>778.6515563928856</v>
       </c>
       <c r="AB5" t="n">
-        <v>954.7317447136031</v>
+        <v>1065.385411138995</v>
       </c>
       <c r="AC5" t="n">
-        <v>863.6134869725557</v>
+        <v>963.7065227777043</v>
       </c>
       <c r="AD5" t="n">
-        <v>697778.8049154679</v>
+        <v>778651.5563928856</v>
       </c>
       <c r="AE5" t="n">
-        <v>954731.7447136032</v>
+        <v>1065385.411138995</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.784617283712788e-06</v>
+        <v>2.679932316892093e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.57096354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>863613.4869725558</v>
+        <v>963706.5227777043</v>
       </c>
     </row>
     <row r="6">
@@ -18853,28 +18853,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>662.999532503285</v>
+        <v>735.7765642560546</v>
       </c>
       <c r="AB6" t="n">
-        <v>907.1452098460447</v>
+        <v>1006.721955386226</v>
       </c>
       <c r="AC6" t="n">
-        <v>820.5685442046361</v>
+        <v>910.6418249073022</v>
       </c>
       <c r="AD6" t="n">
-        <v>662999.532503285</v>
+        <v>735776.5642560546</v>
       </c>
       <c r="AE6" t="n">
-        <v>907145.2098460448</v>
+        <v>1006721.955386226</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.823917961001306e-06</v>
+        <v>2.738949539297408e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.17057291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>820568.544204636</v>
+        <v>910641.8249073022</v>
       </c>
     </row>
     <row r="7">
@@ -18959,28 +18959,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>629.7897901377436</v>
+        <v>710.5772007605897</v>
       </c>
       <c r="AB7" t="n">
-        <v>861.7061752310804</v>
+        <v>972.2430745342742</v>
       </c>
       <c r="AC7" t="n">
-        <v>779.466147279238</v>
+        <v>879.4535600524479</v>
       </c>
       <c r="AD7" t="n">
-        <v>629789.7901377436</v>
+        <v>710577.2007605897</v>
       </c>
       <c r="AE7" t="n">
-        <v>861706.1752310804</v>
+        <v>972243.0745342742</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.849779028439864e-06</v>
+        <v>2.777784706372407e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>779466.1472792381</v>
+        <v>879453.5600524478</v>
       </c>
     </row>
     <row r="8">
@@ -19065,28 +19065,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>611.3544761108071</v>
+        <v>684.2167592095975</v>
       </c>
       <c r="AB8" t="n">
-        <v>836.4821652707716</v>
+        <v>936.1755554636019</v>
       </c>
       <c r="AC8" t="n">
-        <v>756.6494814274207</v>
+        <v>846.8282743807994</v>
       </c>
       <c r="AD8" t="n">
-        <v>611354.4761108072</v>
+        <v>684216.7592095975</v>
       </c>
       <c r="AE8" t="n">
-        <v>836482.1652707716</v>
+        <v>936175.5554636018</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.864949497134137e-06</v>
+        <v>2.800565965798293e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.77018229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>756649.4814274207</v>
+        <v>846828.2743807994</v>
       </c>
     </row>
     <row r="9">
@@ -19171,28 +19171,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>611.6201420281005</v>
+        <v>684.4824251268909</v>
       </c>
       <c r="AB9" t="n">
-        <v>836.8456610991655</v>
+        <v>936.5390512919956</v>
       </c>
       <c r="AC9" t="n">
-        <v>756.9782857241223</v>
+        <v>847.157078677501</v>
       </c>
       <c r="AD9" t="n">
-        <v>611620.1420281006</v>
+        <v>684482.4251268909</v>
       </c>
       <c r="AE9" t="n">
-        <v>836845.6610991654</v>
+        <v>936539.0512919957</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.867393062561402e-06</v>
+        <v>2.804235430403804e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.74739583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>756978.2857241223</v>
+        <v>847157.0786775009</v>
       </c>
     </row>
   </sheetData>
@@ -19468,28 +19468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>963.7060190123019</v>
+        <v>1065.691833200205</v>
       </c>
       <c r="AB2" t="n">
-        <v>1318.585090921583</v>
+        <v>1458.126581190048</v>
       </c>
       <c r="AC2" t="n">
-        <v>1192.741180489825</v>
+        <v>1318.96502677478</v>
       </c>
       <c r="AD2" t="n">
-        <v>963706.0190123019</v>
+        <v>1065691.833200205</v>
       </c>
       <c r="AE2" t="n">
-        <v>1318585.090921583</v>
+        <v>1458126.581190048</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.441536464713444e-06</v>
+        <v>2.210951866148703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.95182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1192741.180489825</v>
+        <v>1318965.026774779</v>
       </c>
     </row>
     <row r="3">
@@ -19574,28 +19574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>690.8821783628126</v>
+        <v>769.464098283617</v>
       </c>
       <c r="AB3" t="n">
-        <v>945.2954760065701</v>
+        <v>1052.814725631848</v>
       </c>
       <c r="AC3" t="n">
-        <v>855.0778025070355</v>
+        <v>952.3355658522914</v>
       </c>
       <c r="AD3" t="n">
-        <v>690882.1783628126</v>
+        <v>769464.0982836169</v>
       </c>
       <c r="AE3" t="n">
-        <v>945295.47600657</v>
+        <v>1052814.725631848</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.749952300454078e-06</v>
+        <v>2.683983651519541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.72981770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>855077.8025070354</v>
+        <v>952335.5658522914</v>
       </c>
     </row>
     <row r="4">
@@ -19680,28 +19680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>610.1281644864922</v>
+        <v>688.6247435527249</v>
       </c>
       <c r="AB4" t="n">
-        <v>834.804271605333</v>
+        <v>942.2067541084132</v>
       </c>
       <c r="AC4" t="n">
-        <v>755.1317235784733</v>
+        <v>852.2838638917902</v>
       </c>
       <c r="AD4" t="n">
-        <v>610128.1644864922</v>
+        <v>688624.7435527249</v>
       </c>
       <c r="AE4" t="n">
-        <v>834804.2716053331</v>
+        <v>942206.7541084131</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.861206843676885e-06</v>
+        <v>2.854619945485843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.54817708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>755131.7235784733</v>
+        <v>852283.8638917903</v>
       </c>
     </row>
     <row r="5">
@@ -19786,28 +19786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>569.2456671983264</v>
+        <v>639.8841437810298</v>
       </c>
       <c r="AB5" t="n">
-        <v>778.8670352071767</v>
+        <v>875.5177152172774</v>
       </c>
       <c r="AC5" t="n">
-        <v>704.5330585137526</v>
+        <v>791.9595332737706</v>
       </c>
       <c r="AD5" t="n">
-        <v>569245.6671983263</v>
+        <v>639884.1437810299</v>
       </c>
       <c r="AE5" t="n">
-        <v>778867.0352071767</v>
+        <v>875517.7152172774</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.912538777823539e-06</v>
+        <v>2.933350132597083e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.05338541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>704533.0585137527</v>
+        <v>791959.5332737706</v>
       </c>
     </row>
     <row r="6">
@@ -19892,28 +19892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>552.1132329459418</v>
+        <v>630.524471157603</v>
       </c>
       <c r="AB6" t="n">
-        <v>755.4256828334087</v>
+        <v>862.7113982142911</v>
       </c>
       <c r="AC6" t="n">
-        <v>683.3289159103924</v>
+        <v>780.3754331917704</v>
       </c>
       <c r="AD6" t="n">
-        <v>552113.2329459419</v>
+        <v>630524.471157603</v>
       </c>
       <c r="AE6" t="n">
-        <v>755425.6828334087</v>
+        <v>862711.3982142911</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.926432338511992e-06</v>
+        <v>2.95465933613339e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.92317708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>683328.9159103924</v>
+        <v>780375.4331917705</v>
       </c>
     </row>
   </sheetData>
@@ -36930,28 +36930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>760.8884976461026</v>
+        <v>845.1541072910874</v>
       </c>
       <c r="AB2" t="n">
-        <v>1041.081210510802</v>
+        <v>1156.377135163397</v>
       </c>
       <c r="AC2" t="n">
-        <v>941.7218809463061</v>
+        <v>1046.014124368904</v>
       </c>
       <c r="AD2" t="n">
-        <v>760888.4976461026</v>
+        <v>845154.1072910874</v>
       </c>
       <c r="AE2" t="n">
-        <v>1041081.210510802</v>
+        <v>1156377.135163397</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.613751209749664e-06</v>
+        <v>2.521454433401331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.13216145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>941721.880946306</v>
+        <v>1046014.124368904</v>
       </c>
     </row>
     <row r="3">
@@ -37036,28 +37036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>564.5837791514825</v>
+        <v>641.1810391978249</v>
       </c>
       <c r="AB3" t="n">
-        <v>772.4884343134996</v>
+        <v>877.2921847415242</v>
       </c>
       <c r="AC3" t="n">
-        <v>698.7632223369453</v>
+        <v>793.5646499171071</v>
       </c>
       <c r="AD3" t="n">
-        <v>564583.7791514825</v>
+        <v>641181.0391978249</v>
       </c>
       <c r="AE3" t="n">
-        <v>772488.4343134996</v>
+        <v>877292.1847415243</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.887043361730521e-06</v>
+        <v>2.948468030083818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.92578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>698763.2223369454</v>
+        <v>793564.6499171071</v>
       </c>
     </row>
     <row r="4">
@@ -37142,28 +37142,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>516.3231229733267</v>
+        <v>585.2522124381288</v>
       </c>
       <c r="AB4" t="n">
-        <v>706.4560754206613</v>
+        <v>800.7678965632122</v>
       </c>
       <c r="AC4" t="n">
-        <v>639.0328990998419</v>
+        <v>724.3437324000199</v>
       </c>
       <c r="AD4" t="n">
-        <v>516323.1229733267</v>
+        <v>585252.2124381288</v>
       </c>
       <c r="AE4" t="n">
-        <v>706456.0754206612</v>
+        <v>800767.8965632122</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.96318336713988e-06</v>
+        <v>3.067435286646502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.193359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>639032.8990998418</v>
+        <v>724343.7324000199</v>
       </c>
     </row>
     <row r="5">
@@ -37248,28 +37248,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>518.5408696700711</v>
+        <v>587.4699591348732</v>
       </c>
       <c r="AB5" t="n">
-        <v>709.490494291226</v>
+        <v>803.8023154337769</v>
       </c>
       <c r="AC5" t="n">
-        <v>641.7777172922334</v>
+        <v>727.0885505924117</v>
       </c>
       <c r="AD5" t="n">
-        <v>518540.8696700711</v>
+        <v>587469.9591348732</v>
       </c>
       <c r="AE5" t="n">
-        <v>709490.494291226</v>
+        <v>803802.3154337769</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.965597027253721e-06</v>
+        <v>3.071206582964052e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.17057291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>641777.7172922335</v>
+        <v>727088.5505924117</v>
       </c>
     </row>
   </sheetData>
@@ -37545,28 +37545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>447.0549672345796</v>
+        <v>519.8019366256344</v>
       </c>
       <c r="AB2" t="n">
-        <v>611.6803288435508</v>
+        <v>711.2159417341754</v>
       </c>
       <c r="AC2" t="n">
-        <v>553.3024167574551</v>
+        <v>643.3384904529086</v>
       </c>
       <c r="AD2" t="n">
-        <v>447054.9672345796</v>
+        <v>519801.9366256344</v>
       </c>
       <c r="AE2" t="n">
-        <v>611680.3288435508</v>
+        <v>711215.9417341754</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.970146427688732e-06</v>
+        <v>3.210700611907932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.45638020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>553302.4167574551</v>
+        <v>643338.4904529086</v>
       </c>
     </row>
     <row r="3">
@@ -37651,28 +37651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.7877000878638</v>
+        <v>514.5346694789185</v>
       </c>
       <c r="AB3" t="n">
-        <v>604.4734215579878</v>
+        <v>704.0090344486125</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.7833265882683</v>
+        <v>636.8194002837218</v>
       </c>
       <c r="AD3" t="n">
-        <v>441787.7000878638</v>
+        <v>514534.6694789185</v>
       </c>
       <c r="AE3" t="n">
-        <v>604473.4215579878</v>
+        <v>704009.0344486125</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.991930964723124e-06</v>
+        <v>3.246202351983419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.24479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>546783.3265882683</v>
+        <v>636819.4002837219</v>
       </c>
     </row>
   </sheetData>
@@ -37948,28 +37948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1744.053677160984</v>
+        <v>1868.426360403281</v>
       </c>
       <c r="AB2" t="n">
-        <v>2386.291183309585</v>
+        <v>2556.463375457231</v>
       </c>
       <c r="AC2" t="n">
-        <v>2158.546901955228</v>
+        <v>2312.478098922476</v>
       </c>
       <c r="AD2" t="n">
-        <v>1744053.677160984</v>
+        <v>1868426.360403281</v>
       </c>
       <c r="AE2" t="n">
-        <v>2386291.183309585</v>
+        <v>2556463.375457231</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060691785212931e-06</v>
+        <v>1.567045683249213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.22135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2158546.901955228</v>
+        <v>2312478.098922476</v>
       </c>
     </row>
     <row r="3">
@@ -38054,28 +38054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1045.459365614744</v>
+        <v>1136.643266300156</v>
       </c>
       <c r="AB3" t="n">
-        <v>1430.443626446147</v>
+        <v>1555.205462113715</v>
       </c>
       <c r="AC3" t="n">
-        <v>1293.924094378365</v>
+        <v>1406.778835554157</v>
       </c>
       <c r="AD3" t="n">
-        <v>1045459.365614744</v>
+        <v>1136643.266300156</v>
       </c>
       <c r="AE3" t="n">
-        <v>1430443.626446147</v>
+        <v>1555205.462113715</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.456567839112845e-06</v>
+        <v>2.151905366348446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.00846354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1293924.094378365</v>
+        <v>1406778.835554157</v>
       </c>
     </row>
     <row r="4">
@@ -38160,28 +38160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>895.8975909127377</v>
+        <v>978.784295958929</v>
       </c>
       <c r="AB4" t="n">
-        <v>1225.80660809904</v>
+        <v>1339.215854646589</v>
       </c>
       <c r="AC4" t="n">
-        <v>1108.817345852447</v>
+        <v>1211.402973080375</v>
       </c>
       <c r="AD4" t="n">
-        <v>895897.5909127377</v>
+        <v>978784.295958929</v>
       </c>
       <c r="AE4" t="n">
-        <v>1225806.60809904</v>
+        <v>1339215.854646589</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.599752859603014e-06</v>
+        <v>2.363444167151005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.0390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1108817.345852447</v>
+        <v>1211402.973080375</v>
       </c>
     </row>
     <row r="5">
@@ -38266,28 +38266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>824.535204701504</v>
+        <v>907.3365688931236</v>
       </c>
       <c r="AB5" t="n">
-        <v>1128.165442998546</v>
+        <v>1241.457922423897</v>
       </c>
       <c r="AC5" t="n">
-        <v>1020.494916508908</v>
+        <v>1122.974920704896</v>
       </c>
       <c r="AD5" t="n">
-        <v>824535.204701504</v>
+        <v>907336.5688931237</v>
       </c>
       <c r="AE5" t="n">
-        <v>1128165.442998546</v>
+        <v>1241457.922423897</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.674890528539739e-06</v>
+        <v>2.474451116953173e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1020494.916508908</v>
+        <v>1122974.920704897</v>
       </c>
     </row>
     <row r="6">
@@ -38372,28 +38372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>778.2311039459262</v>
+        <v>861.1177194835666</v>
       </c>
       <c r="AB6" t="n">
-        <v>1064.810129552012</v>
+        <v>1178.219253630012</v>
       </c>
       <c r="AC6" t="n">
-        <v>963.1861452579703</v>
+        <v>1065.771661704671</v>
       </c>
       <c r="AD6" t="n">
-        <v>778231.1039459262</v>
+        <v>861117.7194835666</v>
       </c>
       <c r="AE6" t="n">
-        <v>1064810.129552012</v>
+        <v>1178219.253630012</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.720583685009778e-06</v>
+        <v>2.541957309231293e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.62955729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>963186.1452579703</v>
+        <v>1065771.661704672</v>
       </c>
     </row>
     <row r="7">
@@ -38478,28 +38478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>750.8942672142813</v>
+        <v>825.4837766212514</v>
       </c>
       <c r="AB7" t="n">
-        <v>1027.406663519655</v>
+        <v>1129.463320947184</v>
       </c>
       <c r="AC7" t="n">
-        <v>929.3524135276473</v>
+        <v>1021.668926807711</v>
       </c>
       <c r="AD7" t="n">
-        <v>750894.2672142813</v>
+        <v>825483.7766212514</v>
       </c>
       <c r="AE7" t="n">
-        <v>1027406.663519655</v>
+        <v>1129463.320947184</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.751012963779697e-06</v>
+        <v>2.58691294158892e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.30729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>929352.4135276473</v>
+        <v>1021668.926807711</v>
       </c>
     </row>
     <row r="8">
@@ -38584,28 +38584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>725.7286677126799</v>
+        <v>800.31817711965</v>
       </c>
       <c r="AB8" t="n">
-        <v>992.9739800536702</v>
+        <v>1095.030637481199</v>
       </c>
       <c r="AC8" t="n">
-        <v>898.2059370450811</v>
+        <v>990.5224503251446</v>
       </c>
       <c r="AD8" t="n">
-        <v>725728.6677126799</v>
+        <v>800318.1771196501</v>
       </c>
       <c r="AE8" t="n">
-        <v>992973.9800536701</v>
+        <v>1095030.637481199</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.774548878426981e-06</v>
+        <v>2.621684450111487e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.06315104166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>898205.9370450811</v>
+        <v>990522.4503251447</v>
       </c>
     </row>
     <row r="9">
@@ -38690,28 +38690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>696.3843298642669</v>
+        <v>779.1856045473356</v>
       </c>
       <c r="AB9" t="n">
-        <v>952.8237624286525</v>
+        <v>1066.116119384455</v>
       </c>
       <c r="AC9" t="n">
-        <v>861.8875998390109</v>
+        <v>964.3674932537731</v>
       </c>
       <c r="AD9" t="n">
-        <v>696384.3298642669</v>
+        <v>779185.6045473356</v>
       </c>
       <c r="AE9" t="n">
-        <v>952823.7624286525</v>
+        <v>1066116.119384455</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.791683812103246e-06</v>
+        <v>2.646999272215782e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.890625</v>
       </c>
       <c r="AH9" t="n">
-        <v>861887.599839011</v>
+        <v>964367.4932537731</v>
       </c>
     </row>
     <row r="10">
@@ -38796,28 +38796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>676.5145027888057</v>
+        <v>751.1892635417964</v>
       </c>
       <c r="AB10" t="n">
-        <v>925.6369884291028</v>
+        <v>1027.810290509281</v>
       </c>
       <c r="AC10" t="n">
-        <v>837.2954933931013</v>
+        <v>929.7175189238772</v>
       </c>
       <c r="AD10" t="n">
-        <v>676514.5027888056</v>
+        <v>751189.2635417965</v>
       </c>
       <c r="AE10" t="n">
-        <v>925636.9884291028</v>
+        <v>1027810.290509281</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.806849213173043e-06</v>
+        <v>2.669404344652917e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.74088541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>837295.4933931013</v>
+        <v>929717.5189238772</v>
       </c>
     </row>
     <row r="11">
@@ -38902,28 +38902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>667.8191998685518</v>
+        <v>742.4939606215427</v>
       </c>
       <c r="AB11" t="n">
-        <v>913.7396913639207</v>
+        <v>1015.912993444099</v>
       </c>
       <c r="AC11" t="n">
-        <v>826.5336576618587</v>
+        <v>918.9556831926346</v>
       </c>
       <c r="AD11" t="n">
-        <v>667819.1998685518</v>
+        <v>742493.9606215426</v>
       </c>
       <c r="AE11" t="n">
-        <v>913739.6913639207</v>
+        <v>1015912.993444099</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.812856287622769e-06</v>
+        <v>2.678279081137756e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>826533.6576618587</v>
+        <v>918955.6831926346</v>
       </c>
     </row>
     <row r="12">
@@ -39008,28 +39008,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>666.440012231747</v>
+        <v>741.1147729847378</v>
       </c>
       <c r="AB12" t="n">
-        <v>911.8526259937801</v>
+        <v>1014.025928073958</v>
       </c>
       <c r="AC12" t="n">
-        <v>824.8266911621313</v>
+        <v>917.2487166929072</v>
       </c>
       <c r="AD12" t="n">
-        <v>666440.012231747</v>
+        <v>741114.7729847378</v>
       </c>
       <c r="AE12" t="n">
-        <v>911852.6259937801</v>
+        <v>1014025.928073958</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.814924296859559e-06</v>
+        <v>2.681334318288274e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.66276041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>824826.6911621313</v>
+        <v>917248.7166929073</v>
       </c>
     </row>
   </sheetData>
@@ -39305,28 +39305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2494.633451816429</v>
+        <v>2656.513444080712</v>
       </c>
       <c r="AB2" t="n">
-        <v>3413.267544236002</v>
+        <v>3634.758891293234</v>
       </c>
       <c r="AC2" t="n">
-        <v>3087.510080365076</v>
+        <v>3287.862604124215</v>
       </c>
       <c r="AD2" t="n">
-        <v>2494633.451816429</v>
+        <v>2656513.444080712</v>
       </c>
       <c r="AE2" t="n">
-        <v>3413267.544236002</v>
+        <v>3634758.891293234</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.664882051651888e-07</v>
+        <v>1.258287323948711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.65104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3087510.080365076</v>
+        <v>3287862.604124215</v>
       </c>
     </row>
     <row r="3">
@@ -39411,28 +39411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1297.92178250545</v>
+        <v>1400.26957659393</v>
       </c>
       <c r="AB3" t="n">
-        <v>1775.873843091774</v>
+        <v>1915.910610229636</v>
       </c>
       <c r="AC3" t="n">
-        <v>1606.386935961687</v>
+        <v>1733.058790586749</v>
       </c>
       <c r="AD3" t="n">
-        <v>1297921.78250545</v>
+        <v>1400269.57659393</v>
       </c>
       <c r="AE3" t="n">
-        <v>1775873.843091774</v>
+        <v>1915910.610229636</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.300254231428476e-06</v>
+        <v>1.888188907320691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.75651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1606386.935961687</v>
+        <v>1733058.790586749</v>
       </c>
     </row>
     <row r="4">
@@ -39517,28 +39517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1080.376508675772</v>
+        <v>1165.666426591389</v>
       </c>
       <c r="AB4" t="n">
-        <v>1478.218802017879</v>
+        <v>1594.916230435646</v>
       </c>
       <c r="AC4" t="n">
-        <v>1337.139674246411</v>
+        <v>1442.699663881855</v>
       </c>
       <c r="AD4" t="n">
-        <v>1080376.508675772</v>
+        <v>1165666.426591389</v>
       </c>
       <c r="AE4" t="n">
-        <v>1478218.802017879</v>
+        <v>1594916.230435646</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.465087219312819e-06</v>
+        <v>2.127554265079853e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.083984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1337139.674246411</v>
+        <v>1442699.663881855</v>
       </c>
     </row>
     <row r="5">
@@ -39623,28 +39623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>976.5144339320723</v>
+        <v>1070.162563470702</v>
       </c>
       <c r="AB5" t="n">
-        <v>1336.110129282198</v>
+        <v>1464.243631580843</v>
       </c>
       <c r="AC5" t="n">
-        <v>1208.593653785849</v>
+        <v>1324.498274461611</v>
       </c>
       <c r="AD5" t="n">
-        <v>976514.4339320723</v>
+        <v>1070162.563470702</v>
       </c>
       <c r="AE5" t="n">
-        <v>1336110.129282198</v>
+        <v>1464243.631580843</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.552295921595899e-06</v>
+        <v>2.254196040428541e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.89908854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1208593.653785849</v>
+        <v>1324498.274461611</v>
       </c>
     </row>
     <row r="6">
@@ -39729,28 +39729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>928.430832029518</v>
+        <v>1013.550068235992</v>
       </c>
       <c r="AB6" t="n">
-        <v>1270.320023860322</v>
+        <v>1386.783918033693</v>
       </c>
       <c r="AC6" t="n">
-        <v>1149.082463688443</v>
+        <v>1254.431207260009</v>
       </c>
       <c r="AD6" t="n">
-        <v>928430.832029518</v>
+        <v>1013550.068235992</v>
       </c>
       <c r="AE6" t="n">
-        <v>1270320.023860322</v>
+        <v>1386783.918033693</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.603824023162507e-06</v>
+        <v>2.329023552957743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.26106770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1149082.463688443</v>
+        <v>1254431.207260009</v>
       </c>
     </row>
     <row r="7">
@@ -39835,28 +39835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>886.2667569320868</v>
+        <v>971.4712444845817</v>
       </c>
       <c r="AB7" t="n">
-        <v>1212.629276164305</v>
+        <v>1329.209814990326</v>
       </c>
       <c r="AC7" t="n">
-        <v>1096.897639983062</v>
+        <v>1202.351895805341</v>
       </c>
       <c r="AD7" t="n">
-        <v>886266.7569320868</v>
+        <v>971471.2444845816</v>
       </c>
       <c r="AE7" t="n">
-        <v>1212629.276164305</v>
+        <v>1329209.814990326</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.639884204737666e-06</v>
+        <v>2.381389031339138e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.837890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1096897.639983062</v>
+        <v>1202351.89580534</v>
       </c>
     </row>
     <row r="8">
@@ -39941,28 +39941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>861.4099743796747</v>
+        <v>946.6144619321697</v>
       </c>
       <c r="AB8" t="n">
-        <v>1178.619129672243</v>
+        <v>1295.199668498264</v>
       </c>
       <c r="AC8" t="n">
-        <v>1066.133374138662</v>
+        <v>1171.587629960941</v>
       </c>
       <c r="AD8" t="n">
-        <v>861409.9743796748</v>
+        <v>946614.4619321696</v>
       </c>
       <c r="AE8" t="n">
-        <v>1178619.129672243</v>
+        <v>1295199.668498264</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.667024236133706e-06</v>
+        <v>2.420800944015661e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.52864583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1066133.374138662</v>
+        <v>1171587.629960941</v>
       </c>
     </row>
     <row r="9">
@@ -40047,28 +40047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>838.3214104110865</v>
+        <v>914.9970046314257</v>
       </c>
       <c r="AB9" t="n">
-        <v>1147.028337854867</v>
+        <v>1251.939268555614</v>
       </c>
       <c r="AC9" t="n">
-        <v>1037.557563154382</v>
+        <v>1132.455941872465</v>
       </c>
       <c r="AD9" t="n">
-        <v>838321.4104110865</v>
+        <v>914997.0046314257</v>
       </c>
       <c r="AE9" t="n">
-        <v>1147028.337854868</v>
+        <v>1251939.268555614</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.687047126429386e-06</v>
+        <v>2.449877564906382e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.310546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1037557.563154381</v>
+        <v>1132455.941872465</v>
       </c>
     </row>
     <row r="10">
@@ -40153,28 +40153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>820.8849086367633</v>
+        <v>897.5605028571025</v>
       </c>
       <c r="AB10" t="n">
-        <v>1123.170946883071</v>
+        <v>1228.081877583818</v>
       </c>
       <c r="AC10" t="n">
-        <v>1015.977088092874</v>
+        <v>1110.875466810958</v>
       </c>
       <c r="AD10" t="n">
-        <v>820884.9086367632</v>
+        <v>897560.5028571025</v>
       </c>
       <c r="AE10" t="n">
-        <v>1123170.946883071</v>
+        <v>1228081.877583818</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.702515046420836e-06</v>
+        <v>2.472339599054191e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.14453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1015977.088092874</v>
+        <v>1110875.466810958</v>
       </c>
     </row>
     <row r="11">
@@ -40259,28 +40259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>804.2497237235938</v>
+        <v>880.925317943933</v>
       </c>
       <c r="AB11" t="n">
-        <v>1100.40995299231</v>
+        <v>1205.320883693056</v>
       </c>
       <c r="AC11" t="n">
-        <v>995.3883715137919</v>
+        <v>1090.286750231875</v>
       </c>
       <c r="AD11" t="n">
-        <v>804249.7237235938</v>
+        <v>880925.317943933</v>
       </c>
       <c r="AE11" t="n">
-        <v>1100409.95299231</v>
+        <v>1205320.883693056</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.715325900401484e-06</v>
+        <v>2.490943124268633e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.0078125</v>
       </c>
       <c r="AH11" t="n">
-        <v>995388.3715137918</v>
+        <v>1090286.750231875</v>
       </c>
     </row>
     <row r="12">
@@ -40365,28 +40365,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>779.3134355627345</v>
+        <v>864.4325822606578</v>
       </c>
       <c r="AB12" t="n">
-        <v>1066.29102341923</v>
+        <v>1182.754795123053</v>
       </c>
       <c r="AC12" t="n">
-        <v>964.5257046929488</v>
+        <v>1069.874337483289</v>
       </c>
       <c r="AD12" t="n">
-        <v>779313.4355627345</v>
+        <v>864432.5822606578</v>
       </c>
       <c r="AE12" t="n">
-        <v>1066291.02341923</v>
+        <v>1182754.795123053</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.727662278308775e-06</v>
+        <v>2.508857630030689e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.880859375</v>
       </c>
       <c r="AH12" t="n">
-        <v>964525.7046929488</v>
+        <v>1069874.337483289</v>
       </c>
     </row>
     <row r="13">
@@ -40471,28 +40471,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>765.4261359472946</v>
+        <v>842.1869815136546</v>
       </c>
       <c r="AB13" t="n">
-        <v>1047.289807420966</v>
+        <v>1152.317382774362</v>
       </c>
       <c r="AC13" t="n">
-        <v>947.3379380811848</v>
+        <v>1042.341829049981</v>
       </c>
       <c r="AD13" t="n">
-        <v>765426.1359472946</v>
+        <v>842186.9815136546</v>
       </c>
       <c r="AE13" t="n">
-        <v>1047289.807420966</v>
+        <v>1152317.382774362</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.736582428487893e-06</v>
+        <v>2.52181119573556e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.78645833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>947337.9380811848</v>
+        <v>1042341.829049981</v>
       </c>
     </row>
     <row r="14">
@@ -40577,28 +40577,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>751.1302664060178</v>
+        <v>827.8911119723776</v>
       </c>
       <c r="AB14" t="n">
-        <v>1027.729568025339</v>
+        <v>1132.757143378735</v>
       </c>
       <c r="AC14" t="n">
-        <v>929.6445004805078</v>
+        <v>1024.648391449304</v>
       </c>
       <c r="AD14" t="n">
-        <v>751130.2664060178</v>
+        <v>827891.1119723776</v>
       </c>
       <c r="AE14" t="n">
-        <v>1027729.568025339</v>
+        <v>1132757.143378735</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.74350977915891e-06</v>
+        <v>2.531870879740407e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.71809895833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>929644.5004805077</v>
+        <v>1024648.391449304</v>
       </c>
     </row>
     <row r="15">
@@ -40683,28 +40683,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>741.9068343116121</v>
+        <v>818.667679877972</v>
       </c>
       <c r="AB15" t="n">
-        <v>1015.109661324667</v>
+        <v>1120.137236678063</v>
       </c>
       <c r="AC15" t="n">
-        <v>918.2290199631979</v>
+        <v>1013.232910931994</v>
       </c>
       <c r="AD15" t="n">
-        <v>741906.8343116121</v>
+        <v>818667.679877972</v>
       </c>
       <c r="AE15" t="n">
-        <v>1015109.661324667</v>
+        <v>1120137.236678063</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.747590273389784e-06</v>
+        <v>2.537796447030933e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.67578125</v>
       </c>
       <c r="AH15" t="n">
-        <v>918229.0199631979</v>
+        <v>1013232.910931994</v>
       </c>
     </row>
     <row r="16">
@@ -40789,28 +40789,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>735.9267454307493</v>
+        <v>812.6875909971092</v>
       </c>
       <c r="AB16" t="n">
-        <v>1006.927439894969</v>
+        <v>1111.955015248365</v>
       </c>
       <c r="AC16" t="n">
-        <v>910.8276982629301</v>
+        <v>1005.831589231726</v>
       </c>
       <c r="AD16" t="n">
-        <v>735926.7454307493</v>
+        <v>812687.5909971092</v>
       </c>
       <c r="AE16" t="n">
-        <v>1006927.439894969</v>
+        <v>1111955.015248365</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.751955453264672e-06</v>
+        <v>2.544135425992892e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.63346354166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>910827.69826293</v>
+        <v>1005831.589231726</v>
       </c>
     </row>
     <row r="17">
@@ -40895,28 +40895,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>738.283604511333</v>
+        <v>815.0444500776928</v>
       </c>
       <c r="AB17" t="n">
-        <v>1010.152198466308</v>
+        <v>1115.179773819704</v>
       </c>
       <c r="AC17" t="n">
-        <v>913.7446904021974</v>
+        <v>1008.748581370993</v>
       </c>
       <c r="AD17" t="n">
-        <v>738283.604511333</v>
+        <v>815044.4500776927</v>
       </c>
       <c r="AE17" t="n">
-        <v>1010152.198466308</v>
+        <v>1115179.773819704</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.751670767620657e-06</v>
+        <v>2.54372201432146e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.63346354166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>913744.6904021974</v>
+        <v>1008748.581370993</v>
       </c>
     </row>
     <row r="18">
@@ -41001,28 +41001,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>741.1727747782051</v>
+        <v>817.9336203445648</v>
       </c>
       <c r="AB18" t="n">
-        <v>1014.105288686638</v>
+        <v>1119.132864040035</v>
       </c>
       <c r="AC18" t="n">
-        <v>917.3205032400969</v>
+        <v>1012.324394208893</v>
       </c>
       <c r="AD18" t="n">
-        <v>741172.7747782051</v>
+        <v>817933.6203445648</v>
       </c>
       <c r="AE18" t="n">
-        <v>1014105.288686638</v>
+        <v>1119132.864040035</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.751670767620657e-06</v>
+        <v>2.54372201432146e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.63346354166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>917320.5032400968</v>
+        <v>1012324.394208893</v>
       </c>
     </row>
   </sheetData>
@@ -41298,28 +41298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.5771334265472</v>
+        <v>476.6485217831377</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.9285267545192</v>
+        <v>652.1715357523716</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.966927008146</v>
+        <v>589.9291997086639</v>
       </c>
       <c r="AD2" t="n">
-        <v>405577.1334265472</v>
+        <v>476648.5217831377</v>
       </c>
       <c r="AE2" t="n">
-        <v>554928.5267545192</v>
+        <v>652171.5357523717</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.94217736265701e-06</v>
+        <v>3.237493950482966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.43619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>501966.927008146</v>
+        <v>589929.1997086639</v>
       </c>
     </row>
   </sheetData>
@@ -41595,28 +41595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1075.491829333268</v>
+        <v>1178.659521164303</v>
       </c>
       <c r="AB2" t="n">
-        <v>1471.535368244622</v>
+        <v>1612.693955645184</v>
       </c>
       <c r="AC2" t="n">
-        <v>1331.094098012215</v>
+        <v>1458.780707948589</v>
       </c>
       <c r="AD2" t="n">
-        <v>1075491.829333268</v>
+        <v>1178659.521164303</v>
       </c>
       <c r="AE2" t="n">
-        <v>1471535.368244622</v>
+        <v>1612693.955645184</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.366074215974854e-06</v>
+        <v>2.079037395055604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.90234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1331094.098012215</v>
+        <v>1458780.707948589</v>
       </c>
     </row>
     <row r="3">
@@ -41701,28 +41701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>753.6602375106837</v>
+        <v>833.0003959228219</v>
       </c>
       <c r="AB3" t="n">
-        <v>1031.19118610519</v>
+        <v>1139.747891085432</v>
       </c>
       <c r="AC3" t="n">
-        <v>932.7757465892298</v>
+        <v>1030.97195200645</v>
       </c>
       <c r="AD3" t="n">
-        <v>753660.2375106837</v>
+        <v>833000.3959228219</v>
       </c>
       <c r="AE3" t="n">
-        <v>1031191.18610519</v>
+        <v>1139747.891085432</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.69371882366219e-06</v>
+        <v>2.577681893066417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.087890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>932775.7465892298</v>
+        <v>1030971.95200645</v>
       </c>
     </row>
     <row r="4">
@@ -41807,28 +41807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>658.9138173576949</v>
+        <v>738.253886261282</v>
       </c>
       <c r="AB4" t="n">
-        <v>901.5549541348176</v>
+        <v>1010.111536645511</v>
       </c>
       <c r="AC4" t="n">
-        <v>815.5118146525152</v>
+        <v>913.7079092885087</v>
       </c>
       <c r="AD4" t="n">
-        <v>658913.817357695</v>
+        <v>738253.886261282</v>
       </c>
       <c r="AE4" t="n">
-        <v>901554.9541348177</v>
+        <v>1010111.536645511</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.808890867576526e-06</v>
+        <v>2.752962989336884e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.80859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>815511.8146525152</v>
+        <v>913707.9092885087</v>
       </c>
     </row>
     <row r="5">
@@ -41913,28 +41913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>613.8711986984374</v>
+        <v>685.2688161347597</v>
       </c>
       <c r="AB5" t="n">
-        <v>839.9256561451317</v>
+        <v>937.6150261620844</v>
       </c>
       <c r="AC5" t="n">
-        <v>759.7643303657019</v>
+        <v>848.1303640161287</v>
       </c>
       <c r="AD5" t="n">
-        <v>613871.1986984374</v>
+        <v>685268.8161347597</v>
       </c>
       <c r="AE5" t="n">
-        <v>839925.6561451317</v>
+        <v>937615.0261620844</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.869298709121432e-06</v>
+        <v>2.844898083388e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.19986979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>759764.3303657019</v>
+        <v>848130.3640161287</v>
       </c>
     </row>
     <row r="6">
@@ -42019,28 +42019,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>575.857405551691</v>
+        <v>655.1121336007066</v>
       </c>
       <c r="AB6" t="n">
-        <v>787.9135073115602</v>
+        <v>896.353322700056</v>
       </c>
       <c r="AC6" t="n">
-        <v>712.716148017297</v>
+        <v>810.8066196213515</v>
       </c>
       <c r="AD6" t="n">
-        <v>575857.4055516911</v>
+        <v>655112.1336007066</v>
       </c>
       <c r="AE6" t="n">
-        <v>787913.5073115602</v>
+        <v>896353.322700056</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.899607141730468e-06</v>
+        <v>2.891024687669702e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.91015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>712716.1480172969</v>
+        <v>810806.6196213515</v>
       </c>
     </row>
     <row r="7">
@@ -42125,28 +42125,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>572.9103585851191</v>
+        <v>652.1650866341347</v>
       </c>
       <c r="AB7" t="n">
-        <v>783.8812276373601</v>
+        <v>892.3210430258557</v>
       </c>
       <c r="AC7" t="n">
-        <v>709.0687034558624</v>
+        <v>807.1591750599171</v>
       </c>
       <c r="AD7" t="n">
-        <v>572910.358585119</v>
+        <v>652165.0866341346</v>
       </c>
       <c r="AE7" t="n">
-        <v>783881.2276373601</v>
+        <v>892321.0430258557</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.904832733559612e-06</v>
+        <v>2.898977550476892e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.861328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>709068.7034558625</v>
+        <v>807159.175059917</v>
       </c>
     </row>
   </sheetData>
@@ -42422,28 +42422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1446.222216763204</v>
+        <v>1568.544852349528</v>
       </c>
       <c r="AB2" t="n">
-        <v>1978.785039796642</v>
+        <v>2146.152266299668</v>
       </c>
       <c r="AC2" t="n">
-        <v>1789.932572840696</v>
+        <v>1941.32650614765</v>
       </c>
       <c r="AD2" t="n">
-        <v>1446222.216763203</v>
+        <v>1568544.852349528</v>
       </c>
       <c r="AE2" t="n">
-        <v>1978785.039796642</v>
+        <v>2146152.266299668</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.171950223784063e-06</v>
+        <v>1.749617021947944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.94921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1789932.572840696</v>
+        <v>1941326.506147651</v>
       </c>
     </row>
     <row r="3">
@@ -42528,28 +42528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>925.6272397582295</v>
+        <v>1015.28508024098</v>
       </c>
       <c r="AB3" t="n">
-        <v>1266.484025228983</v>
+        <v>1389.157838002245</v>
       </c>
       <c r="AC3" t="n">
-        <v>1145.612567382621</v>
+        <v>1256.578563638581</v>
       </c>
       <c r="AD3" t="n">
-        <v>925627.2397582295</v>
+        <v>1015285.08024098</v>
       </c>
       <c r="AE3" t="n">
-        <v>1266484.025228983</v>
+        <v>1389157.838002245</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543649728090607e-06</v>
+        <v>2.30453118688962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.220703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1145612.567382621</v>
+        <v>1256578.56363858</v>
       </c>
     </row>
     <row r="4">
@@ -42634,28 +42634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>801.1505518318189</v>
+        <v>882.8127633621306</v>
       </c>
       <c r="AB4" t="n">
-        <v>1096.169529284169</v>
+        <v>1207.90336978245</v>
       </c>
       <c r="AC4" t="n">
-        <v>991.552647892884</v>
+        <v>1092.622767473439</v>
       </c>
       <c r="AD4" t="n">
-        <v>801150.5518318189</v>
+        <v>882812.7633621306</v>
       </c>
       <c r="AE4" t="n">
-        <v>1096169.529284169</v>
+        <v>1207903.36978245</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.676270179275238e-06</v>
+        <v>2.502521676709092e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.541015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>991552.647892884</v>
+        <v>1092622.767473439</v>
       </c>
     </row>
     <row r="5">
@@ -42740,28 +42740,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>737.7814712933912</v>
+        <v>819.3583419691314</v>
       </c>
       <c r="AB5" t="n">
-        <v>1009.465157644965</v>
+        <v>1121.082231021049</v>
       </c>
       <c r="AC5" t="n">
-        <v>913.1232197925765</v>
+        <v>1014.087716341193</v>
       </c>
       <c r="AD5" t="n">
-        <v>737781.4712933912</v>
+        <v>819358.3419691314</v>
       </c>
       <c r="AE5" t="n">
-        <v>1009465.157644965</v>
+        <v>1121082.231021049</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.747007794740181e-06</v>
+        <v>2.608126619306276e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>913123.2197925765</v>
+        <v>1014087.716341193</v>
       </c>
     </row>
     <row r="6">
@@ -42846,28 +42846,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>703.8799365274706</v>
+        <v>777.290675558731</v>
       </c>
       <c r="AB6" t="n">
-        <v>963.0795821480756</v>
+        <v>1063.523393943879</v>
       </c>
       <c r="AC6" t="n">
-        <v>871.1646185185456</v>
+        <v>962.0222138903328</v>
       </c>
       <c r="AD6" t="n">
-        <v>703879.9365274706</v>
+        <v>777290.675558731</v>
       </c>
       <c r="AE6" t="n">
-        <v>963079.5821480756</v>
+        <v>1063523.393943879</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.786351191108308e-06</v>
+        <v>2.666862796483373e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.33658854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>871164.6185185455</v>
+        <v>962022.2138903327</v>
       </c>
     </row>
     <row r="7">
@@ -42952,28 +42952,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>676.0107026979616</v>
+        <v>749.4214417292216</v>
       </c>
       <c r="AB7" t="n">
-        <v>924.9476669187185</v>
+        <v>1025.391478714522</v>
       </c>
       <c r="AC7" t="n">
-        <v>836.6719597601991</v>
+        <v>927.5295551319865</v>
       </c>
       <c r="AD7" t="n">
-        <v>676010.7026979616</v>
+        <v>749421.4417292216</v>
       </c>
       <c r="AE7" t="n">
-        <v>924947.6669187185</v>
+        <v>1025391.478714522</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.815431092771705e-06</v>
+        <v>2.710276492657749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.04361979166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>836671.9597601991</v>
+        <v>927529.5551319865</v>
       </c>
     </row>
     <row r="8">
@@ -43058,28 +43058,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>643.8300210866797</v>
+        <v>725.3215509078484</v>
       </c>
       <c r="AB8" t="n">
-        <v>880.9166386266885</v>
+        <v>992.4169448805739</v>
       </c>
       <c r="AC8" t="n">
-        <v>796.8431910104241</v>
+        <v>897.7020645271015</v>
       </c>
       <c r="AD8" t="n">
-        <v>643830.0210866798</v>
+        <v>725321.5509078484</v>
       </c>
       <c r="AE8" t="n">
-        <v>880916.6386266885</v>
+        <v>992416.9448805739</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.836360572169583e-06</v>
+        <v>2.74152233627114e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.83528645833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>796843.1910104241</v>
+        <v>897702.0645271015</v>
       </c>
     </row>
     <row r="9">
@@ -43164,28 +43164,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>630.7963049557272</v>
+        <v>704.2922953330078</v>
       </c>
       <c r="AB9" t="n">
-        <v>863.0833332093455</v>
+        <v>963.643789657798</v>
       </c>
       <c r="AC9" t="n">
-        <v>780.7118712329109</v>
+        <v>871.6749788554104</v>
       </c>
       <c r="AD9" t="n">
-        <v>630796.3049557272</v>
+        <v>704292.2953330078</v>
       </c>
       <c r="AE9" t="n">
-        <v>863083.3332093455</v>
+        <v>963643.789657798</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.846523444377207e-06</v>
+        <v>2.756694596871874e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.73763020833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>780711.8712329109</v>
+        <v>871674.9788554104</v>
       </c>
     </row>
     <row r="10">
@@ -43270,28 +43270,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>630.3034040859516</v>
+        <v>703.7993944632324</v>
       </c>
       <c r="AB10" t="n">
-        <v>862.4089244940669</v>
+        <v>962.9693809425196</v>
       </c>
       <c r="AC10" t="n">
-        <v>780.10182713888</v>
+        <v>871.0649347613795</v>
       </c>
       <c r="AD10" t="n">
-        <v>630303.4040859516</v>
+        <v>703799.3944632324</v>
       </c>
       <c r="AE10" t="n">
-        <v>862408.924494067</v>
+        <v>962969.3809425196</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.848435271822206e-06</v>
+        <v>2.759548784509636e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.72135416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>780101.82713888</v>
+        <v>871064.9347613795</v>
       </c>
     </row>
   </sheetData>
